--- a/Documentación/To Do - Requisitos_ DemoFinal.xlsx
+++ b/Documentación/To Do - Requisitos_ DemoFinal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzc\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482C46FA-0E2D-4B51-89F9-488B3076A75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82041B24-E5AD-4006-9B14-4F74F8B9576C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1194,16 +1194,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2277,23 +2277,23 @@
   </sheetPr>
   <dimension ref="A2:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J168" sqref="J168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.36328125" customWidth="1"/>
-    <col min="11" max="11" width="35.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="35.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2328,11 +2328,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E998)</f>
-        <v>425.2</v>
+        <v>433.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>516.95000000000005</v>
+        <v>523.94999999999993</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2345,10 +2345,10 @@
       </c>
       <c r="M3">
         <f>K3+K6+K9+K12+K15+K18</f>
-        <v>512.95000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>519.95000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
@@ -2362,20 +2362,20 @@
       </c>
       <c r="K4" s="75"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
       <c r="J5" s="24"/>
       <c r="K5" s="75"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2401,7 +2401,7 @@
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2443,7 +2443,7 @@
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -2468,7 +2468,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="J10" s="80"/>
       <c r="K10" s="69"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2506,7 +2506,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2526,10 +2526,10 @@
       </c>
       <c r="K12" s="69">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134+J149+J165</f>
-        <v>89.85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2547,7 +2547,7 @@
       <c r="J13" s="66"/>
       <c r="K13" s="69"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2565,7 +2565,7 @@
       <c r="J14" s="67"/>
       <c r="K14" s="69"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2606,7 +2606,7 @@
       <c r="J16" s="71"/>
       <c r="K16" s="69"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2624,7 +2624,7 @@
       <c r="J17" s="72"/>
       <c r="K17" s="69"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="J19" s="74"/>
       <c r="K19" s="69"/>
     </row>
-    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="J20" s="74"/>
       <c r="K20" s="69"/>
     </row>
-    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2731,7 +2731,7 @@
       <c r="K22" s="68"/>
       <c r="L22" s="68"/>
     </row>
-    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
@@ -3062,15 +3062,15 @@
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
     </row>
-    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-    </row>
-    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+    </row>
+    <row r="43" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>9</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>9</v>
       </c>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="G68" s="26"/>
     </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="59" t="s">
         <v>67</v>
       </c>
@@ -3758,13 +3758,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="63"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="64"/>
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="61"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="5" t="s">
         <v>12</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
         <v>13</v>
       </c>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="G80" s="49"/>
     </row>
-    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -3966,7 +3966,7 @@
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
     </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="8" t="s">
         <v>14</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4030,7 +4030,7 @@
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
     </row>
-    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
@@ -4044,7 +4044,7 @@
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
     </row>
-    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="36" t="s">
         <v>14</v>
       </c>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="G87" s="37"/>
     </row>
-    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="G88" s="49"/>
     </row>
-    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="5" t="s">
         <v>12</v>
       </c>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="5" t="s">
         <v>12</v>
       </c>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="6" t="s">
         <v>13</v>
       </c>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="40" t="s">
         <v>15</v>
       </c>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="37" t="s">
         <v>150</v>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="F98" s="37"/>
       <c r="G98" s="11"/>
     </row>
-    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="5" t="s">
         <v>12</v>
       </c>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="5" t="s">
         <v>12</v>
       </c>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="40" t="s">
         <v>15</v>
       </c>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="6" t="s">
         <v>13</v>
       </c>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
         <v>13</v>
       </c>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="6" t="s">
         <v>13</v>
       </c>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="42" t="s">
         <v>9</v>
       </c>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="42" t="s">
         <v>9</v>
       </c>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="42" t="s">
         <v>9</v>
       </c>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="42" t="s">
         <v>9</v>
       </c>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="42" t="s">
         <v>9</v>
       </c>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="G109" s="11"/>
     </row>
-    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="42" t="s">
         <v>9</v>
       </c>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="42" t="s">
         <v>9</v>
       </c>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="43" t="s">
         <v>14</v>
       </c>
@@ -4500,7 +4500,7 @@
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
     </row>
-    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="44" t="s">
         <v>14</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
     </row>
-    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="44" t="s">
         <v>14</v>
       </c>
@@ -4528,7 +4528,7 @@
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
     </row>
-    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="5" t="s">
         <v>12</v>
       </c>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="5" t="s">
         <v>12</v>
       </c>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="5" t="s">
         <v>12</v>
       </c>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="G117" s="11"/>
     </row>
-    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="45" t="s">
         <v>13</v>
       </c>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="45" t="s">
         <v>13</v>
       </c>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="G119" s="11"/>
     </row>
-    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="45" t="s">
         <v>13</v>
       </c>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="G120" s="11"/>
     </row>
-    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="10" t="s">
         <v>16</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="4" t="s">
         <v>9</v>
       </c>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="4" t="s">
         <v>9</v>
       </c>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="G123" s="48"/>
     </row>
-    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="4" t="s">
         <v>9</v>
       </c>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="10" t="s">
         <v>16</v>
       </c>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="G125" s="7"/>
     </row>
-    <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="10" t="s">
         <v>16</v>
       </c>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="G126" s="50"/>
     </row>
-    <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="59" t="s">
         <v>176</v>
       </c>
@@ -4733,15 +4733,15 @@
       <c r="F127" s="60"/>
       <c r="G127" s="60"/>
     </row>
-    <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="61"/>
-      <c r="C128" s="62"/>
-      <c r="D128" s="62"/>
-      <c r="E128" s="62"/>
-      <c r="F128" s="62"/>
-      <c r="G128" s="62"/>
-    </row>
-    <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="63"/>
+      <c r="C128" s="64"/>
+      <c r="D128" s="64"/>
+      <c r="E128" s="64"/>
+      <c r="F128" s="64"/>
+      <c r="G128" s="64"/>
+    </row>
+    <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="51" t="s">
         <v>15</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="51" t="s">
         <v>15</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="52" t="s">
         <v>13</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="52" t="s">
         <v>13</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="53" t="s">
         <v>16</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="55" t="s">
         <v>12</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="56" t="s">
         <v>14</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="56" t="s">
         <v>14</v>
       </c>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="G136" s="11"/>
     </row>
-    <row r="137" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="54" t="s">
         <v>9</v>
       </c>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="G137" s="11"/>
     </row>
-    <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="54" t="s">
         <v>9</v>
       </c>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="G138" s="7"/>
     </row>
-    <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="54" t="s">
         <v>9</v>
       </c>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="G139" s="7"/>
     </row>
-    <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="54" t="s">
         <v>9</v>
       </c>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="53" t="s">
         <v>16</v>
       </c>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="G141" s="7"/>
     </row>
-    <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="59" t="s">
         <v>187</v>
       </c>
@@ -5036,15 +5036,15 @@
       <c r="F142" s="60"/>
       <c r="G142" s="60"/>
     </row>
-    <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="61"/>
-      <c r="C143" s="62"/>
-      <c r="D143" s="62"/>
-      <c r="E143" s="62"/>
-      <c r="F143" s="62"/>
-      <c r="G143" s="62"/>
-    </row>
-    <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="63"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="64"/>
+      <c r="F143" s="64"/>
+      <c r="G143" s="64"/>
+    </row>
+    <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="55" t="s">
         <v>12</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="55" t="s">
         <v>12</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="53" t="s">
         <v>16</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="55" t="s">
         <v>12</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="52" t="s">
         <v>13</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="52" t="s">
         <v>13</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="52" t="s">
         <v>13</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="52" t="s">
         <v>13</v>
       </c>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="G151" s="11"/>
     </row>
-    <row r="152" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="54" t="s">
         <v>9</v>
       </c>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="G152" s="11"/>
     </row>
-    <row r="153" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="54" t="s">
         <v>9</v>
       </c>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="G153" s="7"/>
     </row>
-    <row r="154" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="54" t="s">
         <v>9</v>
       </c>
@@ -5283,7 +5283,7 @@
       <c r="F154" s="13"/>
       <c r="G154" s="26"/>
     </row>
-    <row r="155" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="51" t="s">
         <v>15</v>
       </c>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="G155" s="11"/>
     </row>
-    <row r="156" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="51" t="s">
         <v>15</v>
       </c>
@@ -5313,7 +5313,7 @@
       <c r="F156" s="13"/>
       <c r="G156" s="11"/>
     </row>
-    <row r="157" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="56" t="s">
         <v>14</v>
       </c>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="G157" s="11"/>
     </row>
-    <row r="158" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="56" t="s">
         <v>14</v>
       </c>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="G158" s="7"/>
     </row>
-    <row r="159" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="59" t="s">
         <v>201</v>
       </c>
@@ -5355,13 +5355,13 @@
       <c r="F159" s="60"/>
       <c r="G159" s="60"/>
     </row>
-    <row r="160" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="61"/>
-      <c r="C160" s="62"/>
-      <c r="D160" s="62"/>
-      <c r="E160" s="62"/>
-      <c r="F160" s="62"/>
-      <c r="G160" s="62"/>
+    <row r="160" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="63"/>
+      <c r="C160" s="64"/>
+      <c r="D160" s="64"/>
+      <c r="E160" s="64"/>
+      <c r="F160" s="64"/>
+      <c r="G160" s="64"/>
       <c r="I160" s="58" t="s">
         <v>188</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="56" t="s">
         <v>14</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="56" t="s">
         <v>14</v>
       </c>
@@ -5407,8 +5407,6 @@
         <v>203</v>
       </c>
       <c r="D162" s="13"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="13"/>
       <c r="G162" s="1"/>
       <c r="I162" s="6" t="s">
         <v>13</v>
@@ -5422,7 +5420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="56" t="s">
         <v>14</v>
       </c>
@@ -5430,14 +5428,18 @@
         <v>204</v>
       </c>
       <c r="D163" s="13"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
+      <c r="E163" s="13">
+        <v>8</v>
+      </c>
+      <c r="F163" s="13">
+        <v>7</v>
+      </c>
       <c r="G163" s="1"/>
       <c r="I163" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="56" t="s">
         <v>14</v>
       </c>
@@ -5446,7 +5448,6 @@
       </c>
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
       <c r="G164" s="1"/>
       <c r="I164" s="5" t="s">
         <v>12</v>
@@ -5460,7 +5461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="55" t="s">
         <v>12</v>
       </c>
@@ -5475,15 +5476,15 @@
         <v>14</v>
       </c>
       <c r="J165">
-        <f>F161</f>
-        <v>11</v>
+        <f>F161+F163</f>
+        <v>18</v>
       </c>
       <c r="K165">
-        <f>E161</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>E161+E163</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="55" t="s">
         <v>12</v>
       </c>
@@ -5502,7 +5503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="54" t="s">
         <v>9</v>
       </c>
@@ -5518,7 +5519,7 @@
       </c>
       <c r="G167" s="11"/>
     </row>
-    <row r="168" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="54" t="s">
         <v>9</v>
       </c>
@@ -5534,7 +5535,7 @@
       </c>
       <c r="G168" s="7"/>
     </row>
-    <row r="169" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="54" t="s">
         <v>9</v>
       </c>
@@ -5552,7 +5553,7 @@
       </c>
       <c r="G169" s="7"/>
     </row>
-    <row r="170" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="54" t="s">
         <v>9</v>
       </c>
@@ -5570,7 +5571,7 @@
       </c>
       <c r="G170" s="7"/>
     </row>
-    <row r="171" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="54" t="s">
         <v>9</v>
       </c>
@@ -5588,7 +5589,7 @@
       </c>
       <c r="G171" s="7"/>
     </row>
-    <row r="172" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="54" t="s">
         <v>9</v>
       </c>
@@ -5606,7 +5607,7 @@
       </c>
       <c r="G172" s="7"/>
     </row>
-    <row r="173" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="52" t="s">
         <v>13</v>
       </c>
@@ -5624,7 +5625,7 @@
       </c>
       <c r="G173" s="11"/>
     </row>
-    <row r="174" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="52" t="s">
         <v>13</v>
       </c>
@@ -5642,7 +5643,7 @@
       </c>
       <c r="G174" s="7"/>
     </row>
-    <row r="175" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="52" t="s">
         <v>13</v>
       </c>
@@ -5660,7 +5661,7 @@
       </c>
       <c r="G175" s="11"/>
     </row>
-    <row r="176" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="52" t="s">
         <v>13</v>
       </c>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="G176" s="50"/>
     </row>
-    <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="53" t="s">
         <v>16</v>
       </c>
@@ -5688,7 +5689,7 @@
       <c r="F177" s="13"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="53" t="s">
         <v>16</v>
       </c>
@@ -5698,7 +5699,7 @@
       <c r="F178" s="13"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="51" t="s">
         <v>15</v>
       </c>
@@ -5710,7 +5711,7 @@
       <c r="F179" s="13"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="51" t="s">
         <v>15</v>
       </c>
@@ -5722,7 +5723,7 @@
       <c r="F180" s="13"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="55" t="s">
         <v>12</v>
       </c>
@@ -5738,7 +5739,7 @@
       </c>
       <c r="G181" s="7"/>
     </row>
-    <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="52" t="s">
         <v>13</v>
       </c>
@@ -5754,6 +5755,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
     <mergeCell ref="B72:G73"/>
     <mergeCell ref="B41:G42"/>
     <mergeCell ref="B159:G160"/>
@@ -5770,8 +5773,6 @@
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="K6:K8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5791,17 +5792,17 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>91</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5883,7 +5884,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5921,7 +5922,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -5940,7 +5941,7 @@
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -5963,7 +5964,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -5978,7 +5979,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -6001,7 +6002,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -6016,7 +6017,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -6031,7 +6032,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -6048,7 +6049,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -6063,7 +6064,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -6080,7 +6081,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -6095,7 +6096,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -6110,7 +6111,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -6125,7 +6126,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -6148,7 +6149,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -6171,7 +6172,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -6185,7 +6186,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -6206,7 +6207,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -6221,7 +6222,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -6236,7 +6237,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -6257,7 +6258,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -6272,7 +6273,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -6295,7 +6296,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -6310,7 +6311,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -6333,7 +6334,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -6348,7 +6349,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -6365,7 +6366,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -6388,7 +6389,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -6409,7 +6410,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -6430,7 +6431,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -6453,7 +6454,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -6470,7 +6471,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -6485,7 +6486,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -6508,7 +6509,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -6525,7 +6526,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -6540,7 +6541,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -6561,7 +6562,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6584,7 +6585,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6607,7 +6608,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6630,7 +6631,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6653,7 +6654,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6691,7 +6692,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6712,7 +6713,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -6735,7 +6736,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="38">
         <v>48</v>
       </c>
@@ -6761,23 +6762,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6986,10 +6970,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7012,20 +7024,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ DemoFinal.xlsx
+++ b/Documentación/To Do - Requisitos_ DemoFinal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanzc\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82041B24-E5AD-4006-9B14-4F74F8B9576C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BC73E7-32CC-4505-9CCC-8C2797CEBCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1188,6 +1188,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1218,9 +1230,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1246,15 +1255,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2277,23 +2277,23 @@
   </sheetPr>
   <dimension ref="A2:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J168" sqref="J168"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="35.42578125" customWidth="1"/>
-    <col min="12" max="12" width="26.5703125" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.453125" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.54296875" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2332,50 +2332,50 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>523.94999999999993</v>
+        <v>526.94999999999993</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="75">
+      <c r="K3" s="78">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130+J145+J161</f>
-        <v>138.25</v>
+        <v>141.25</v>
       </c>
       <c r="L3" t="s">
         <v>222</v>
       </c>
       <c r="M3">
         <f>K3+K6+K9+K12+K15+K18</f>
-        <v>519.95000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="59" t="s">
+        <v>522.95000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="75"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
+      <c r="K4" s="78"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="75"/>
+      <c r="K5" s="78"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2390,10 +2390,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="62">
         <f>F7+F13+F20+F43+F45+F47+F46+J76+J133+J148+J164</f>
         <v>91.320000000000007</v>
       </c>
@@ -2401,7 +2401,7 @@
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2416,13 +2416,13 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="69"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="62"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2437,13 +2437,13 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="69"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="62"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -2458,17 +2458,17 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="79" t="s">
+      <c r="J9" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="62">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74+J131+J146+J162</f>
         <v>114.78</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
@@ -2483,10 +2483,10 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="69"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="60"/>
+      <c r="K10" s="62"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2501,12 +2501,12 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="69"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2521,15 +2521,15 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="65" t="s">
+      <c r="J12" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="62">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134+J149+J165</f>
         <v>96.85</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2544,10 +2544,10 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="69"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="70"/>
+      <c r="K13" s="62"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="69"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="71"/>
+      <c r="K14" s="62"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -2580,15 +2580,15 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="70" t="s">
+      <c r="J15" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="62">
         <f>F10+F16+F39+F40+F49+F50+F51+J75+J132</f>
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2603,10 +2603,10 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="69"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="74"/>
+      <c r="K16" s="62"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2621,10 +2621,10 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="69"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="75"/>
+      <c r="K17" s="62"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -2641,15 +2641,15 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="73" t="s">
+      <c r="J18" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="62">
         <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+J78+J135</f>
         <v>36.75</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -2667,10 +2667,10 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="69"/>
-    </row>
-    <row r="20" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J19" s="77"/>
+      <c r="K19" s="62"/>
+    </row>
+    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2687,10 +2687,10 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="69"/>
-    </row>
-    <row r="21" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J20" s="77"/>
+      <c r="K20" s="62"/>
+    </row>
+    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2725,13 +2725,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="68" t="s">
+      <c r="J22" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-    </row>
-    <row r="23" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+    </row>
+    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -3052,25 +3052,25 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B41" s="59" t="s">
+    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-    </row>
-    <row r="42" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B42" s="61"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-    </row>
-    <row r="43" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+    </row>
+    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+    </row>
+    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>9</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>9</v>
       </c>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="G68" s="26"/>
     </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3739,15 +3739,15 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="59" t="s">
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3758,13 +3758,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="61"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="65"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>12</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>13</v>
       </c>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="G80" s="49"/>
     </row>
-    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -3966,7 +3966,7 @@
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
     </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>14</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4030,7 +4030,7 @@
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
     </row>
-    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
@@ -4044,7 +4044,7 @@
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
     </row>
-    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="36" t="s">
         <v>14</v>
       </c>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="G87" s="37"/>
     </row>
-    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="G88" s="49"/>
     </row>
-    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>12</v>
       </c>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>12</v>
       </c>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>13</v>
       </c>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="40" t="s">
         <v>15</v>
       </c>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="37" t="s">
         <v>150</v>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="F98" s="37"/>
       <c r="G98" s="11"/>
     </row>
-    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
         <v>12</v>
       </c>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
         <v>12</v>
       </c>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="40" t="s">
         <v>15</v>
       </c>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
         <v>13</v>
       </c>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
         <v>13</v>
       </c>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
         <v>13</v>
       </c>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="42" t="s">
         <v>9</v>
       </c>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="42" t="s">
         <v>9</v>
       </c>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="42" t="s">
         <v>9</v>
       </c>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="42" t="s">
         <v>9</v>
       </c>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="42" t="s">
         <v>9</v>
       </c>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="G109" s="11"/>
     </row>
-    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="42" t="s">
         <v>9</v>
       </c>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="42" t="s">
         <v>9</v>
       </c>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="43" t="s">
         <v>14</v>
       </c>
@@ -4500,7 +4500,7 @@
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
     </row>
-    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="44" t="s">
         <v>14</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
     </row>
-    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="44" t="s">
         <v>14</v>
       </c>
@@ -4528,7 +4528,7 @@
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
     </row>
-    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
         <v>12</v>
       </c>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
         <v>12</v>
       </c>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
         <v>12</v>
       </c>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="G117" s="11"/>
     </row>
-    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="45" t="s">
         <v>13</v>
       </c>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="45" t="s">
         <v>13</v>
       </c>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="G119" s="11"/>
     </row>
-    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="45" t="s">
         <v>13</v>
       </c>
@@ -4634,7 +4634,7 @@
       </c>
       <c r="G120" s="11"/>
     </row>
-    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
         <v>16</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="4" t="s">
         <v>9</v>
       </c>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
         <v>9</v>
       </c>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="G123" s="48"/>
     </row>
-    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="4" t="s">
         <v>9</v>
       </c>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
         <v>16</v>
       </c>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="G125" s="7"/>
     </row>
-    <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
         <v>16</v>
       </c>
@@ -4723,25 +4723,25 @@
       </c>
       <c r="G126" s="50"/>
     </row>
-    <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="59" t="s">
+    <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="60"/>
-      <c r="D127" s="60"/>
-      <c r="E127" s="60"/>
-      <c r="F127" s="60"/>
-      <c r="G127" s="60"/>
-    </row>
-    <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="63"/>
-      <c r="C128" s="64"/>
-      <c r="D128" s="64"/>
-      <c r="E128" s="64"/>
-      <c r="F128" s="64"/>
-      <c r="G128" s="64"/>
-    </row>
-    <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C127" s="64"/>
+      <c r="D127" s="64"/>
+      <c r="E127" s="64"/>
+      <c r="F127" s="64"/>
+      <c r="G127" s="64"/>
+    </row>
+    <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="67"/>
+      <c r="C128" s="68"/>
+      <c r="D128" s="68"/>
+      <c r="E128" s="68"/>
+      <c r="F128" s="68"/>
+      <c r="G128" s="68"/>
+    </row>
+    <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="51" t="s">
         <v>15</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="51" t="s">
         <v>15</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="52" t="s">
         <v>13</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="52" t="s">
         <v>13</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="53" t="s">
         <v>16</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="55" t="s">
         <v>12</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="56" t="s">
         <v>14</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="56" t="s">
         <v>14</v>
       </c>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="G136" s="11"/>
     </row>
-    <row r="137" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="54" t="s">
         <v>9</v>
       </c>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="G137" s="11"/>
     </row>
-    <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="54" t="s">
         <v>9</v>
       </c>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="G138" s="7"/>
     </row>
-    <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="54" t="s">
         <v>9</v>
       </c>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="G139" s="7"/>
     </row>
-    <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="54" t="s">
         <v>9</v>
       </c>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="53" t="s">
         <v>16</v>
       </c>
@@ -5026,25 +5026,25 @@
       </c>
       <c r="G141" s="7"/>
     </row>
-    <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="59" t="s">
+    <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="C142" s="60"/>
-      <c r="D142" s="60"/>
-      <c r="E142" s="60"/>
-      <c r="F142" s="60"/>
-      <c r="G142" s="60"/>
-    </row>
-    <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="63"/>
-      <c r="C143" s="64"/>
-      <c r="D143" s="64"/>
-      <c r="E143" s="64"/>
-      <c r="F143" s="64"/>
-      <c r="G143" s="64"/>
-    </row>
-    <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C142" s="64"/>
+      <c r="D142" s="64"/>
+      <c r="E142" s="64"/>
+      <c r="F142" s="64"/>
+      <c r="G142" s="64"/>
+    </row>
+    <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="67"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="68"/>
+      <c r="E143" s="68"/>
+      <c r="F143" s="68"/>
+      <c r="G143" s="68"/>
+    </row>
+    <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="55" t="s">
         <v>12</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="55" t="s">
         <v>12</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="53" t="s">
         <v>16</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="55" t="s">
         <v>12</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="52" t="s">
         <v>13</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="52" t="s">
         <v>13</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="52" t="s">
         <v>13</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="52" t="s">
         <v>13</v>
       </c>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="G151" s="11"/>
     </row>
-    <row r="152" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="54" t="s">
         <v>9</v>
       </c>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="G152" s="11"/>
     </row>
-    <row r="153" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="54" t="s">
         <v>9</v>
       </c>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="G153" s="7"/>
     </row>
-    <row r="154" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="54" t="s">
         <v>9</v>
       </c>
@@ -5283,7 +5283,7 @@
       <c r="F154" s="13"/>
       <c r="G154" s="26"/>
     </row>
-    <row r="155" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="51" t="s">
         <v>15</v>
       </c>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="G155" s="11"/>
     </row>
-    <row r="156" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="51" t="s">
         <v>15</v>
       </c>
@@ -5313,7 +5313,7 @@
       <c r="F156" s="13"/>
       <c r="G156" s="11"/>
     </row>
-    <row r="157" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="56" t="s">
         <v>14</v>
       </c>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="G157" s="11"/>
     </row>
-    <row r="158" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="56" t="s">
         <v>14</v>
       </c>
@@ -5345,23 +5345,23 @@
       </c>
       <c r="G158" s="7"/>
     </row>
-    <row r="159" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="59" t="s">
+    <row r="159" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="C159" s="60"/>
-      <c r="D159" s="60"/>
-      <c r="E159" s="60"/>
-      <c r="F159" s="60"/>
-      <c r="G159" s="60"/>
-    </row>
-    <row r="160" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="63"/>
-      <c r="C160" s="64"/>
-      <c r="D160" s="64"/>
-      <c r="E160" s="64"/>
-      <c r="F160" s="64"/>
-      <c r="G160" s="64"/>
+      <c r="C159" s="64"/>
+      <c r="D159" s="64"/>
+      <c r="E159" s="64"/>
+      <c r="F159" s="64"/>
+      <c r="G159" s="64"/>
+    </row>
+    <row r="160" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="67"/>
+      <c r="C160" s="68"/>
+      <c r="D160" s="68"/>
+      <c r="E160" s="68"/>
+      <c r="F160" s="68"/>
+      <c r="G160" s="68"/>
       <c r="I160" s="58" t="s">
         <v>188</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="56" t="s">
         <v>14</v>
       </c>
@@ -5392,14 +5392,14 @@
       </c>
       <c r="J161">
         <f>F167+F168+F169+F170+F171+F172</f>
-        <v>16.75</v>
+        <v>19.75</v>
       </c>
       <c r="K161">
         <f>E167+E168+E169+E170+E171+E172</f>
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="56" t="s">
         <v>14</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="56" t="s">
         <v>14</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="56" t="s">
         <v>14</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="55" t="s">
         <v>12</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="55" t="s">
         <v>12</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="54" t="s">
         <v>9</v>
       </c>
@@ -5515,11 +5515,11 @@
         <v>10</v>
       </c>
       <c r="F167" s="13">
-        <v>10</v>
-      </c>
-      <c r="G167" s="11"/>
-    </row>
-    <row r="168" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="G167" s="7"/>
+    </row>
+    <row r="168" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="54" t="s">
         <v>9</v>
       </c>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="G168" s="7"/>
     </row>
-    <row r="169" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="54" t="s">
         <v>9</v>
       </c>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="G169" s="7"/>
     </row>
-    <row r="170" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="54" t="s">
         <v>9</v>
       </c>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="G170" s="7"/>
     </row>
-    <row r="171" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="54" t="s">
         <v>9</v>
       </c>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="G171" s="7"/>
     </row>
-    <row r="172" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="54" t="s">
         <v>9</v>
       </c>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="G172" s="7"/>
     </row>
-    <row r="173" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="52" t="s">
         <v>13</v>
       </c>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="G173" s="11"/>
     </row>
-    <row r="174" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="52" t="s">
         <v>13</v>
       </c>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="G174" s="7"/>
     </row>
-    <row r="175" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="52" t="s">
         <v>13</v>
       </c>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="G175" s="11"/>
     </row>
-    <row r="176" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="52" t="s">
         <v>13</v>
       </c>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="G176" s="50"/>
     </row>
-    <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="53" t="s">
         <v>16</v>
       </c>
@@ -5689,7 +5689,7 @@
       <c r="F177" s="13"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="53" t="s">
         <v>16</v>
       </c>
@@ -5699,7 +5699,7 @@
       <c r="F178" s="13"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="51" t="s">
         <v>15</v>
       </c>
@@ -5711,7 +5711,7 @@
       <c r="F179" s="13"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="51" t="s">
         <v>15</v>
       </c>
@@ -5723,7 +5723,7 @@
       <c r="F180" s="13"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="55" t="s">
         <v>12</v>
       </c>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="G181" s="7"/>
     </row>
-    <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="52" t="s">
         <v>13</v>
       </c>
@@ -5755,11 +5755,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="B41:G42"/>
-    <mergeCell ref="B159:G160"/>
     <mergeCell ref="B4:G5"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="J22:L22"/>
@@ -5773,6 +5768,11 @@
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="K6:K8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="B159:G160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5792,17 +5792,17 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>91</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5922,7 +5922,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -5979,7 +5979,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -6017,7 +6017,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -6032,7 +6032,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -6049,7 +6049,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -6064,7 +6064,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -6081,7 +6081,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -6096,7 +6096,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -6111,7 +6111,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -6126,7 +6126,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -6186,7 +6186,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -6222,7 +6222,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -6237,7 +6237,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -6273,7 +6273,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -6311,7 +6311,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -6349,7 +6349,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -6366,7 +6366,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -6471,7 +6471,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -6486,7 +6486,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -6526,7 +6526,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -6541,7 +6541,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6692,7 +6692,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>48</v>
       </c>
@@ -6762,6 +6762,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6970,38 +6987,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7024,9 +7013,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ DemoFinal.xlsx
+++ b/Documentación/To Do - Requisitos_ DemoFinal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golro\Documents\Universidad\año 3\primer cuatrimestre\IngenieriaDelSoftware\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BC73E7-32CC-4505-9CCC-8C2797CEBCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7625029D-0581-426F-AC32-0DBAEAD544EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2933" yWindow="2933" windowWidth="19200" windowHeight="10074" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="224">
   <si>
     <t>Nombre</t>
   </si>
@@ -735,6 +735,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Apoyo RegistoUsuario</t>
   </si>
 </sst>
 </file>
@@ -820,7 +823,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,6 +953,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,7 +1113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1188,18 +1197,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1210,12 +1207,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1229,6 +1220,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1257,6 +1257,17 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2275,25 +2286,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P182"/>
+  <dimension ref="A2:P183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G167" sqref="G167"/>
+    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K167" sqref="K167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.453125" customWidth="1"/>
-    <col min="11" max="11" width="35.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.54296875" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.52734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.52734375" customWidth="1"/>
+    <col min="5" max="5" width="13.52734375" customWidth="1"/>
+    <col min="7" max="7" width="53.46875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.46875" customWidth="1"/>
+    <col min="11" max="11" width="35.46875" customWidth="1"/>
+    <col min="12" max="12" width="26.52734375" customWidth="1"/>
+    <col min="16" max="16" width="17.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +2330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2328,15 +2339,15 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E998)</f>
-        <v>433.2</v>
+        <v>439.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>526.94999999999993</v>
+        <v>548.54999999999995</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="78">
+      <c r="K3" s="75">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130+J145+J161</f>
         <v>141.25</v>
       </c>
@@ -2345,37 +2356,37 @@
       </c>
       <c r="M3">
         <f>K3+K6+K9+K12+K15+K18</f>
-        <v>522.95000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="63" t="s">
+        <v>541.55000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="78"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
+      <c r="K4" s="75"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="78"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2390,10 +2401,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="69">
         <f>F7+F13+F20+F43+F45+F47+F46+J76+J133+J148+J164</f>
         <v>91.320000000000007</v>
       </c>
@@ -2401,7 +2412,7 @@
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2416,13 +2427,13 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="62"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2437,13 +2448,13 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="69"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -2458,17 +2469,17 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K9" s="69">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74+J131+J146+J162</f>
         <v>114.78</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
@@ -2483,10 +2494,10 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="62"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="80"/>
+      <c r="K10" s="69"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2501,12 +2512,12 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="69"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2521,15 +2532,15 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="62">
+      <c r="K12" s="69">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134+J149+J165</f>
         <v>96.85</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2544,10 +2555,10 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="62"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="64"/>
+      <c r="K13" s="69"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2562,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="62"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="65"/>
+      <c r="K14" s="69"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -2580,15 +2591,15 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="73" t="s">
+      <c r="J15" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="62">
+      <c r="K15" s="69">
         <f>F10+F16+F39+F40+F49+F50+F51+J75+J132</f>
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2603,10 +2614,10 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="62"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="71"/>
+      <c r="K16" s="69"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2621,10 +2632,10 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="62"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="72"/>
+      <c r="K17" s="69"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -2641,15 +2652,15 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="76" t="s">
+      <c r="J18" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="62">
-        <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+J78+J135</f>
-        <v>36.75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="69">
+        <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+J78+J135+J150+J166</f>
+        <v>55.35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -2667,10 +2678,10 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="62"/>
-    </row>
-    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="J19" s="74"/>
+      <c r="K19" s="69"/>
+    </row>
+    <row r="20" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2687,10 +2698,10 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="62"/>
-    </row>
-    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="J20" s="74"/>
+      <c r="K20" s="69"/>
+    </row>
+    <row r="21" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2708,7 +2719,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2725,13 +2736,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-    </row>
-    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+    </row>
+    <row r="23" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2749,7 +2760,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2767,7 +2778,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2785,7 +2796,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2803,7 +2814,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2821,7 +2832,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2839,7 +2850,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2857,7 +2868,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2875,7 +2886,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2892,7 +2903,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2910,7 +2921,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2926,7 +2937,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2944,7 +2955,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2962,7 +2973,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2980,7 +2991,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2998,7 +3009,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -3016,7 +3027,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -3034,7 +3045,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -3052,25 +3063,25 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="63" t="s">
+    <row r="41" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-    </row>
-    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="65"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-    </row>
-    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+    </row>
+    <row r="42" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+    </row>
+    <row r="43" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -3088,7 +3099,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -3106,7 +3117,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -3124,7 +3135,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3142,7 +3153,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3160,7 +3171,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3178,7 +3189,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3205,7 +3216,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3234,7 +3245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3263,7 +3274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3292,7 +3303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3321,7 +3332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3350,7 +3361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3377,7 +3388,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3395,7 +3406,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3413,7 +3424,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3440,7 +3451,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3469,7 +3480,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3498,7 +3509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3525,7 +3536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="4" t="s">
         <v>9</v>
       </c>
@@ -3554,7 +3565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
@@ -3583,7 +3594,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
@@ -3612,7 +3623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="4" t="s">
         <v>9</v>
       </c>
@@ -3630,7 +3641,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
@@ -3649,7 +3660,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
@@ -3667,7 +3678,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -3685,7 +3696,7 @@
       </c>
       <c r="G68" s="26"/>
     </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -3703,7 +3714,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -3721,7 +3732,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3739,15 +3750,15 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="63" t="s">
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3758,13 +3769,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="65"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="61"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -3777,7 +3788,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
@@ -3806,7 +3817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="5" t="s">
         <v>12</v>
       </c>
@@ -3835,7 +3846,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
@@ -3862,7 +3873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
@@ -3891,7 +3902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
@@ -3913,14 +3924,14 @@
       </c>
       <c r="J78">
         <f>F79+F81+F82+F97+F121+F125+F126</f>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="K78">
         <f>E79+E82+E81+E97+E121</f>
         <v>12.5</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -3936,7 +3947,7 @@
       </c>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="6" t="s">
         <v>13</v>
       </c>
@@ -3952,7 +3963,7 @@
       </c>
       <c r="G80" s="49"/>
     </row>
-    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -3963,10 +3974,12 @@
       <c r="E81" s="34">
         <v>3</v>
       </c>
-      <c r="F81" s="34"/>
+      <c r="F81" s="34">
+        <v>1</v>
+      </c>
       <c r="G81" s="34"/>
     </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
@@ -3984,7 +3997,7 @@
       </c>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
@@ -4002,7 +4015,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="8" t="s">
         <v>14</v>
       </c>
@@ -4016,7 +4029,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4030,7 +4043,7 @@
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
     </row>
-    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
@@ -4044,7 +4057,7 @@
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
     </row>
-    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="36" t="s">
         <v>14</v>
       </c>
@@ -4062,7 +4075,7 @@
       </c>
       <c r="G87" s="37"/>
     </row>
-    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
@@ -4080,7 +4093,7 @@
       </c>
       <c r="G88" s="49"/>
     </row>
-    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="5" t="s">
         <v>12</v>
       </c>
@@ -4098,7 +4111,7 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="5" t="s">
         <v>12</v>
       </c>
@@ -4116,7 +4129,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="6" t="s">
         <v>13</v>
       </c>
@@ -4134,7 +4147,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
@@ -4152,7 +4165,7 @@
       </c>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
@@ -4170,7 +4183,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4188,7 +4201,7 @@
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
@@ -4206,7 +4219,7 @@
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="40" t="s">
         <v>15</v>
       </c>
@@ -4224,7 +4237,7 @@
       </c>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
@@ -4242,7 +4255,7 @@
       </c>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="37" t="s">
         <v>150</v>
       </c>
@@ -4256,7 +4269,7 @@
       <c r="F98" s="37"/>
       <c r="G98" s="11"/>
     </row>
-    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B99" s="5" t="s">
         <v>12</v>
       </c>
@@ -4274,7 +4287,7 @@
       </c>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="5" t="s">
         <v>12</v>
       </c>
@@ -4290,7 +4303,7 @@
       </c>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="40" t="s">
         <v>15</v>
       </c>
@@ -4308,7 +4321,7 @@
       </c>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="6" t="s">
         <v>13</v>
       </c>
@@ -4324,7 +4337,7 @@
       </c>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="6" t="s">
         <v>13</v>
       </c>
@@ -4342,7 +4355,7 @@
       </c>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="6" t="s">
         <v>13</v>
       </c>
@@ -4360,7 +4373,7 @@
       </c>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="42" t="s">
         <v>9</v>
       </c>
@@ -4378,7 +4391,7 @@
       </c>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="42" t="s">
         <v>9</v>
       </c>
@@ -4396,7 +4409,7 @@
       </c>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B107" s="42" t="s">
         <v>9</v>
       </c>
@@ -4414,7 +4427,7 @@
       </c>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="42" t="s">
         <v>9</v>
       </c>
@@ -4432,7 +4445,7 @@
       </c>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B109" s="42" t="s">
         <v>9</v>
       </c>
@@ -4450,7 +4463,7 @@
       </c>
       <c r="G109" s="11"/>
     </row>
-    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B110" s="42" t="s">
         <v>9</v>
       </c>
@@ -4468,7 +4481,7 @@
       </c>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B111" s="42" t="s">
         <v>9</v>
       </c>
@@ -4486,7 +4499,7 @@
       </c>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B112" s="43" t="s">
         <v>14</v>
       </c>
@@ -4500,7 +4513,7 @@
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
     </row>
-    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B113" s="44" t="s">
         <v>14</v>
       </c>
@@ -4514,7 +4527,7 @@
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
     </row>
-    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B114" s="44" t="s">
         <v>14</v>
       </c>
@@ -4528,7 +4541,7 @@
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
     </row>
-    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B115" s="5" t="s">
         <v>12</v>
       </c>
@@ -4546,7 +4559,7 @@
       </c>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B116" s="5" t="s">
         <v>12</v>
       </c>
@@ -4564,7 +4577,7 @@
       </c>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B117" s="5" t="s">
         <v>12</v>
       </c>
@@ -4582,7 +4595,7 @@
       </c>
       <c r="G117" s="11"/>
     </row>
-    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B118" s="45" t="s">
         <v>13</v>
       </c>
@@ -4600,7 +4613,7 @@
       </c>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B119" s="45" t="s">
         <v>13</v>
       </c>
@@ -4618,7 +4631,7 @@
       </c>
       <c r="G119" s="11"/>
     </row>
-    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B120" s="45" t="s">
         <v>13</v>
       </c>
@@ -4634,7 +4647,7 @@
       </c>
       <c r="G120" s="11"/>
     </row>
-    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B121" s="10" t="s">
         <v>16</v>
       </c>
@@ -4642,7 +4655,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B122" s="4" t="s">
         <v>9</v>
       </c>
@@ -4660,7 +4673,7 @@
       </c>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B123" s="4" t="s">
         <v>9</v>
       </c>
@@ -4678,7 +4691,7 @@
       </c>
       <c r="G123" s="48"/>
     </row>
-    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B124" s="4" t="s">
         <v>9</v>
       </c>
@@ -4696,7 +4709,7 @@
       </c>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B125" s="10" t="s">
         <v>16</v>
       </c>
@@ -4708,7 +4721,7 @@
       </c>
       <c r="G125" s="7"/>
     </row>
-    <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B126" s="10" t="s">
         <v>16</v>
       </c>
@@ -4723,17 +4736,17 @@
       </c>
       <c r="G126" s="50"/>
     </row>
-    <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="63" t="s">
+    <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B127" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="64"/>
-      <c r="D127" s="64"/>
-      <c r="E127" s="64"/>
-      <c r="F127" s="64"/>
-      <c r="G127" s="64"/>
-    </row>
-    <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="60"/>
+      <c r="D127" s="60"/>
+      <c r="E127" s="60"/>
+      <c r="F127" s="60"/>
+      <c r="G127" s="60"/>
+    </row>
+    <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B128" s="67"/>
       <c r="C128" s="68"/>
       <c r="D128" s="68"/>
@@ -4741,7 +4754,7 @@
       <c r="F128" s="68"/>
       <c r="G128" s="68"/>
     </row>
-    <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B129" s="51" t="s">
         <v>15</v>
       </c>
@@ -4766,7 +4779,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B130" s="51" t="s">
         <v>15</v>
       </c>
@@ -4793,7 +4806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B131" s="52" t="s">
         <v>13</v>
       </c>
@@ -4820,7 +4833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B132" s="52" t="s">
         <v>13</v>
       </c>
@@ -4847,7 +4860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B133" s="53" t="s">
         <v>16</v>
       </c>
@@ -4872,7 +4885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B134" s="55" t="s">
         <v>12</v>
       </c>
@@ -4901,7 +4914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B135" s="56" t="s">
         <v>14</v>
       </c>
@@ -4924,7 +4937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B136" s="56" t="s">
         <v>14</v>
       </c>
@@ -4938,7 +4951,7 @@
       </c>
       <c r="G136" s="11"/>
     </row>
-    <row r="137" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B137" s="54" t="s">
         <v>9</v>
       </c>
@@ -4956,7 +4969,7 @@
       </c>
       <c r="G137" s="11"/>
     </row>
-    <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B138" s="54" t="s">
         <v>9</v>
       </c>
@@ -4974,7 +4987,7 @@
       </c>
       <c r="G138" s="7"/>
     </row>
-    <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B139" s="54" t="s">
         <v>9</v>
       </c>
@@ -4992,7 +5005,7 @@
       </c>
       <c r="G139" s="7"/>
     </row>
-    <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B140" s="54" t="s">
         <v>9</v>
       </c>
@@ -5010,7 +5023,7 @@
       </c>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B141" s="53" t="s">
         <v>16</v>
       </c>
@@ -5026,17 +5039,17 @@
       </c>
       <c r="G141" s="7"/>
     </row>
-    <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="63" t="s">
+    <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B142" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="C142" s="64"/>
-      <c r="D142" s="64"/>
-      <c r="E142" s="64"/>
-      <c r="F142" s="64"/>
-      <c r="G142" s="64"/>
-    </row>
-    <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="60"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="60"/>
+      <c r="G142" s="60"/>
+    </row>
+    <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B143" s="67"/>
       <c r="C143" s="68"/>
       <c r="D143" s="68"/>
@@ -5044,7 +5057,7 @@
       <c r="F143" s="68"/>
       <c r="G143" s="68"/>
     </row>
-    <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B144" s="55" t="s">
         <v>12</v>
       </c>
@@ -5071,7 +5084,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B145" s="55" t="s">
         <v>12</v>
       </c>
@@ -5100,7 +5113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B146" s="53" t="s">
         <v>16</v>
       </c>
@@ -5109,8 +5122,10 @@
       </c>
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
+      <c r="F146" s="13">
+        <v>3</v>
+      </c>
+      <c r="G146" s="83"/>
       <c r="I146" s="6" t="s">
         <v>13</v>
       </c>
@@ -5123,7 +5138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B147" s="55" t="s">
         <v>12</v>
       </c>
@@ -5142,7 +5157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B148" s="52" t="s">
         <v>13</v>
       </c>
@@ -5171,7 +5186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B149" s="52" t="s">
         <v>13</v>
       </c>
@@ -5196,7 +5211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B150" s="52" t="s">
         <v>13</v>
       </c>
@@ -5213,7 +5228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B151" s="52" t="s">
         <v>13</v>
       </c>
@@ -5231,7 +5246,7 @@
       </c>
       <c r="G151" s="11"/>
     </row>
-    <row r="152" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B152" s="54" t="s">
         <v>9</v>
       </c>
@@ -5249,7 +5264,7 @@
       </c>
       <c r="G152" s="11"/>
     </row>
-    <row r="153" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B153" s="54" t="s">
         <v>9</v>
       </c>
@@ -5267,7 +5282,7 @@
       </c>
       <c r="G153" s="7"/>
     </row>
-    <row r="154" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B154" s="54" t="s">
         <v>9</v>
       </c>
@@ -5283,7 +5298,7 @@
       <c r="F154" s="13"/>
       <c r="G154" s="26"/>
     </row>
-    <row r="155" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B155" s="51" t="s">
         <v>15</v>
       </c>
@@ -5299,7 +5314,7 @@
       </c>
       <c r="G155" s="11"/>
     </row>
-    <row r="156" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B156" s="51" t="s">
         <v>15</v>
       </c>
@@ -5313,7 +5328,7 @@
       <c r="F156" s="13"/>
       <c r="G156" s="11"/>
     </row>
-    <row r="157" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B157" s="56" t="s">
         <v>14</v>
       </c>
@@ -5329,7 +5344,7 @@
       </c>
       <c r="G157" s="11"/>
     </row>
-    <row r="158" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B158" s="56" t="s">
         <v>14</v>
       </c>
@@ -5345,17 +5360,17 @@
       </c>
       <c r="G158" s="7"/>
     </row>
-    <row r="159" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="63" t="s">
+    <row r="159" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B159" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="C159" s="64"/>
-      <c r="D159" s="64"/>
-      <c r="E159" s="64"/>
-      <c r="F159" s="64"/>
-      <c r="G159" s="64"/>
-    </row>
-    <row r="160" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C159" s="60"/>
+      <c r="D159" s="60"/>
+      <c r="E159" s="60"/>
+      <c r="F159" s="60"/>
+      <c r="G159" s="60"/>
+    </row>
+    <row r="160" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B160" s="67"/>
       <c r="C160" s="68"/>
       <c r="D160" s="68"/>
@@ -5372,7 +5387,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B161" s="56" t="s">
         <v>14</v>
       </c>
@@ -5399,7 +5414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B162" s="56" t="s">
         <v>14</v>
       </c>
@@ -5420,7 +5435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B163" s="56" t="s">
         <v>14</v>
       </c>
@@ -5439,7 +5454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B164" s="56" t="s">
         <v>14</v>
       </c>
@@ -5461,7 +5476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B165" s="55" t="s">
         <v>12</v>
       </c>
@@ -5484,7 +5499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B166" s="55" t="s">
         <v>12</v>
       </c>
@@ -5502,8 +5517,16 @@
       <c r="I166" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="167" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J166">
+        <f>F177+F178+F183</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K166">
+        <f>F163+F164+F169</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B167" s="54" t="s">
         <v>9</v>
       </c>
@@ -5519,7 +5542,7 @@
       </c>
       <c r="G167" s="7"/>
     </row>
-    <row r="168" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B168" s="54" t="s">
         <v>9</v>
       </c>
@@ -5535,7 +5558,7 @@
       </c>
       <c r="G168" s="7"/>
     </row>
-    <row r="169" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B169" s="54" t="s">
         <v>9</v>
       </c>
@@ -5553,7 +5576,7 @@
       </c>
       <c r="G169" s="7"/>
     </row>
-    <row r="170" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B170" s="54" t="s">
         <v>9</v>
       </c>
@@ -5571,7 +5594,7 @@
       </c>
       <c r="G170" s="7"/>
     </row>
-    <row r="171" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B171" s="54" t="s">
         <v>9</v>
       </c>
@@ -5589,7 +5612,7 @@
       </c>
       <c r="G171" s="7"/>
     </row>
-    <row r="172" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B172" s="54" t="s">
         <v>9</v>
       </c>
@@ -5607,7 +5630,7 @@
       </c>
       <c r="G172" s="7"/>
     </row>
-    <row r="173" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B173" s="52" t="s">
         <v>13</v>
       </c>
@@ -5625,7 +5648,7 @@
       </c>
       <c r="G173" s="11"/>
     </row>
-    <row r="174" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B174" s="52" t="s">
         <v>13</v>
       </c>
@@ -5643,7 +5666,7 @@
       </c>
       <c r="G174" s="7"/>
     </row>
-    <row r="175" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B175" s="52" t="s">
         <v>13</v>
       </c>
@@ -5661,7 +5684,7 @@
       </c>
       <c r="G175" s="11"/>
     </row>
-    <row r="176" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B176" s="52" t="s">
         <v>13</v>
       </c>
@@ -5677,7 +5700,7 @@
       </c>
       <c r="G176" s="50"/>
     </row>
-    <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B177" s="53" t="s">
         <v>16</v>
       </c>
@@ -5685,21 +5708,29 @@
         <v>213</v>
       </c>
       <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="13"/>
-      <c r="G177" s="1"/>
-    </row>
-    <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E177" s="13">
+        <v>6</v>
+      </c>
+      <c r="F177" s="13">
+        <v>10.6</v>
+      </c>
+      <c r="G177" s="82"/>
+    </row>
+    <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B178" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C178" s="13"/>
+      <c r="C178" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="D178" s="13"/>
       <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
-      <c r="G178" s="1"/>
-    </row>
-    <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F178" s="13">
+        <v>7</v>
+      </c>
+      <c r="G178" s="82"/>
+    </row>
+    <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B179" s="51" t="s">
         <v>15</v>
       </c>
@@ -5711,7 +5742,7 @@
       <c r="F179" s="13"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B180" s="51" t="s">
         <v>15</v>
       </c>
@@ -5723,7 +5754,7 @@
       <c r="F180" s="13"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B181" s="55" t="s">
         <v>12</v>
       </c>
@@ -5739,7 +5770,7 @@
       </c>
       <c r="G181" s="7"/>
     </row>
-    <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B182" s="52" t="s">
         <v>13</v>
       </c>
@@ -5753,8 +5784,24 @@
       </c>
       <c r="G182" s="11"/>
     </row>
+    <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B183" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D183" s="13"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="13">
+        <v>0</v>
+      </c>
+      <c r="G183" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="B159:G160"/>
     <mergeCell ref="B4:G5"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="J22:L22"/>
@@ -5771,8 +5818,6 @@
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
     <mergeCell ref="B72:G73"/>
-    <mergeCell ref="B41:G42"/>
-    <mergeCell ref="B159:G160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5792,17 +5837,17 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.52734375" customWidth="1"/>
+    <col min="2" max="2" width="35.46875" customWidth="1"/>
+    <col min="3" max="3" width="27.46875" customWidth="1"/>
+    <col min="4" max="4" width="10.46875" customWidth="1"/>
+    <col min="7" max="7" width="17.46875" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>91</v>
       </c>
@@ -5832,7 +5877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5861,7 +5906,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5884,7 +5929,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5907,7 +5952,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5922,7 +5967,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -5941,7 +5986,7 @@
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -5964,7 +6009,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -5979,7 +6024,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -6002,7 +6047,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -6017,7 +6062,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -6032,7 +6077,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -6049,7 +6094,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -6064,7 +6109,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -6081,7 +6126,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -6096,7 +6141,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -6111,7 +6156,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -6126,7 +6171,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -6149,7 +6194,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -6172,7 +6217,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -6186,7 +6231,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -6207,7 +6252,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -6222,7 +6267,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -6237,7 +6282,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -6258,7 +6303,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -6273,7 +6318,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -6296,7 +6341,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -6311,7 +6356,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -6334,7 +6379,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -6349,7 +6394,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -6366,7 +6411,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -6389,7 +6434,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -6410,7 +6455,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -6431,7 +6476,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -6454,7 +6499,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -6471,7 +6516,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -6486,7 +6531,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -6509,7 +6554,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -6526,7 +6571,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -6541,7 +6586,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -6562,7 +6607,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6585,7 +6630,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6608,7 +6653,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6631,7 +6676,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6654,7 +6699,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6675,7 +6720,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6692,7 +6737,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6713,7 +6758,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -6736,7 +6781,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="38">
         <v>48</v>
       </c>
@@ -6762,23 +6807,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6987,10 +7015,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7013,20 +7069,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ DemoFinal.xlsx
+++ b/Documentación/To Do - Requisitos_ DemoFinal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golro\Documents\Universidad\año 3\primer cuatrimestre\IngenieriaDelSoftware\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7625029D-0581-426F-AC32-0DBAEAD544EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E60ADB-564F-4BBC-AEEC-F9E907CD06A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2933" yWindow="2933" windowWidth="19200" windowHeight="10074" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="225">
   <si>
     <t>Nombre</t>
   </si>
@@ -734,10 +734,13 @@
     <t>Diseñar imágenes poker</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Apoyo RegistoUsuario</t>
+  </si>
+  <si>
+    <t>Diseñar poster</t>
+  </si>
+  <si>
+    <t>Hacer online poker con dados</t>
   </si>
 </sst>
 </file>
@@ -1197,6 +1200,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1209,6 +1214,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1219,12 +1230,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1266,8 +1271,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2286,25 +2289,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P183"/>
+  <dimension ref="A2:P185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K167" sqref="K167"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.52734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.52734375" customWidth="1"/>
-    <col min="5" max="5" width="13.52734375" customWidth="1"/>
-    <col min="7" max="7" width="53.46875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.46875" customWidth="1"/>
-    <col min="11" max="11" width="35.46875" customWidth="1"/>
-    <col min="12" max="12" width="26.52734375" customWidth="1"/>
-    <col min="16" max="16" width="17.46875" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.453125" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.54296875" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2338,55 +2341,48 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:F3" si="0">SUM(E6:E998)</f>
-        <v>439.2</v>
+        <f t="shared" ref="E3:F3" si="0">SUM(E6:E1000)</f>
+        <v>445.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>548.54999999999995</v>
+        <v>550.04999999999995</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="75">
+      <c r="K3" s="77">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130+J145+J161</f>
-        <v>141.25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>222</v>
-      </c>
-      <c r="M3">
-        <f>K3+K6+K9+K12+K15+K18</f>
-        <v>541.55000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="59" t="s">
+        <v>142.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="75"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
+      <c r="K4" s="77"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="75"/>
+      <c r="K5" s="77"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2401,10 +2397,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="71">
         <f>F7+F13+F20+F43+F45+F47+F46+J76+J133+J148+J164</f>
         <v>91.320000000000007</v>
       </c>
@@ -2412,7 +2408,7 @@
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
@@ -2427,13 +2423,13 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="69"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="71"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2448,13 +2444,13 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="69"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="71"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -2469,17 +2465,17 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="79" t="s">
+      <c r="J9" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="71">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74+J131+J146+J162</f>
         <v>114.78</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
@@ -2494,10 +2490,10 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="69"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J10" s="82"/>
+      <c r="K10" s="71"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2512,12 +2508,12 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="69"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="71"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2532,15 +2528,15 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="71">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134+J149+J165</f>
         <v>96.85</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2555,10 +2551,10 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="69"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J13" s="68"/>
+      <c r="K13" s="71"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2573,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="69"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J14" s="69"/>
+      <c r="K14" s="71"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
@@ -2591,15 +2587,15 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="70" t="s">
+      <c r="J15" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="71">
         <f>F10+F16+F39+F40+F49+F50+F51+J75+J132</f>
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
@@ -2614,10 +2610,10 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="69"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J16" s="73"/>
+      <c r="K16" s="71"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2632,10 +2628,10 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="69"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J17" s="74"/>
+      <c r="K17" s="71"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
@@ -2652,15 +2648,15 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="73" t="s">
+      <c r="J18" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="71">
         <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+J78+J135+J150+J166</f>
         <v>55.35</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
@@ -2678,10 +2674,10 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="69"/>
-    </row>
-    <row r="20" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="J19" s="76"/>
+      <c r="K19" s="71"/>
+    </row>
+    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2698,10 +2694,10 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="69"/>
-    </row>
-    <row r="21" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="J20" s="76"/>
+      <c r="K20" s="71"/>
+    </row>
+    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2719,7 +2715,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2736,13 +2732,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="66" t="s">
+      <c r="J22" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-    </row>
-    <row r="23" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+    </row>
+    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2760,7 +2756,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2778,7 +2774,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2796,7 +2792,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2814,7 +2810,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2832,7 +2828,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2850,7 +2846,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2868,7 +2864,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2886,7 +2882,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2903,7 +2899,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2921,7 +2917,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2937,7 +2933,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2955,7 +2951,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2973,7 +2969,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2991,7 +2987,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -3009,7 +3005,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -3027,7 +3023,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -3045,7 +3041,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -3063,25 +3059,25 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
-      <c r="B41" s="59" t="s">
+    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-    </row>
-    <row r="42" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
-      <c r="B42" s="61"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-    </row>
-    <row r="43" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+    </row>
+    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+    </row>
+    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -3099,7 +3095,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -3117,7 +3113,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -3135,7 +3131,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3153,7 +3149,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3171,7 +3167,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3189,7 +3185,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3216,7 +3212,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3245,7 +3241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3274,7 +3270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3303,7 +3299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3332,7 +3328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3361,7 +3357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3388,7 +3384,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3406,7 +3402,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3424,7 +3420,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3451,7 +3447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3480,7 +3476,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3509,7 +3505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3536,7 +3532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>9</v>
       </c>
@@ -3565,7 +3561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
@@ -3594,7 +3590,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
@@ -3623,7 +3619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>9</v>
       </c>
@@ -3641,7 +3637,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>13</v>
       </c>
@@ -3660,7 +3656,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>14</v>
       </c>
@@ -3678,7 +3674,7 @@
       </c>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -3696,7 +3692,7 @@
       </c>
       <c r="G68" s="26"/>
     </row>
-    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -3714,7 +3710,7 @@
       </c>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -3732,7 +3728,7 @@
       </c>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3750,15 +3746,15 @@
       </c>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="59" t="s">
+    <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3769,13 +3765,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="61"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
+    <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="63"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -3788,7 +3784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
@@ -3817,7 +3813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>12</v>
       </c>
@@ -3846,7 +3842,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
@@ -3873,7 +3869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
@@ -3902,7 +3898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
@@ -3931,7 +3927,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -3947,7 +3943,7 @@
       </c>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>13</v>
       </c>
@@ -3963,7 +3959,7 @@
       </c>
       <c r="G80" s="49"/>
     </row>
-    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
@@ -3979,7 +3975,7 @@
       </c>
       <c r="G81" s="34"/>
     </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
@@ -3997,7 +3993,7 @@
       </c>
       <c r="G82" s="11"/>
     </row>
-    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
@@ -4015,7 +4011,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>14</v>
       </c>
@@ -4029,7 +4025,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4043,7 +4039,7 @@
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
     </row>
-    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
@@ -4057,7 +4053,7 @@
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
     </row>
-    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="36" t="s">
         <v>14</v>
       </c>
@@ -4075,7 +4071,7 @@
       </c>
       <c r="G87" s="37"/>
     </row>
-    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
@@ -4093,7 +4089,7 @@
       </c>
       <c r="G88" s="49"/>
     </row>
-    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>12</v>
       </c>
@@ -4111,7 +4107,7 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>12</v>
       </c>
@@ -4129,7 +4125,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>13</v>
       </c>
@@ -4147,7 +4143,7 @@
       </c>
       <c r="G91" s="11"/>
     </row>
-    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
@@ -4165,7 +4161,7 @@
       </c>
       <c r="G92" s="11"/>
     </row>
-    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
@@ -4183,7 +4179,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4201,7 +4197,7 @@
       </c>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
@@ -4219,7 +4215,7 @@
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="40" t="s">
         <v>15</v>
       </c>
@@ -4237,7 +4233,7 @@
       </c>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
@@ -4255,7 +4251,7 @@
       </c>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="37" t="s">
         <v>150</v>
       </c>
@@ -4269,7 +4265,7 @@
       <c r="F98" s="37"/>
       <c r="G98" s="11"/>
     </row>
-    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
         <v>12</v>
       </c>
@@ -4287,7 +4283,7 @@
       </c>
       <c r="G99" s="11"/>
     </row>
-    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
         <v>12</v>
       </c>
@@ -4303,7 +4299,7 @@
       </c>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="40" t="s">
         <v>15</v>
       </c>
@@ -4321,7 +4317,7 @@
       </c>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
         <v>13</v>
       </c>
@@ -4337,7 +4333,7 @@
       </c>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
         <v>13</v>
       </c>
@@ -4355,7 +4351,7 @@
       </c>
       <c r="G103" s="11"/>
     </row>
-    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
         <v>13</v>
       </c>
@@ -4373,7 +4369,7 @@
       </c>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="42" t="s">
         <v>9</v>
       </c>
@@ -4391,7 +4387,7 @@
       </c>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="42" t="s">
         <v>9</v>
       </c>
@@ -4409,7 +4405,7 @@
       </c>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="42" t="s">
         <v>9</v>
       </c>
@@ -4427,7 +4423,7 @@
       </c>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="42" t="s">
         <v>9</v>
       </c>
@@ -4445,7 +4441,7 @@
       </c>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="42" t="s">
         <v>9</v>
       </c>
@@ -4463,7 +4459,7 @@
       </c>
       <c r="G109" s="11"/>
     </row>
-    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="42" t="s">
         <v>9</v>
       </c>
@@ -4481,7 +4477,7 @@
       </c>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="42" t="s">
         <v>9</v>
       </c>
@@ -4499,7 +4495,7 @@
       </c>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="43" t="s">
         <v>14</v>
       </c>
@@ -4513,7 +4509,7 @@
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
     </row>
-    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="44" t="s">
         <v>14</v>
       </c>
@@ -4527,7 +4523,7 @@
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
     </row>
-    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="44" t="s">
         <v>14</v>
       </c>
@@ -4541,7 +4537,7 @@
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
     </row>
-    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
         <v>12</v>
       </c>
@@ -4559,7 +4555,7 @@
       </c>
       <c r="G115" s="11"/>
     </row>
-    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
         <v>12</v>
       </c>
@@ -4577,7 +4573,7 @@
       </c>
       <c r="G116" s="11"/>
     </row>
-    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
         <v>12</v>
       </c>
@@ -4595,7 +4591,7 @@
       </c>
       <c r="G117" s="11"/>
     </row>
-    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="45" t="s">
         <v>13</v>
       </c>
@@ -4613,7 +4609,7 @@
       </c>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="45" t="s">
         <v>13</v>
       </c>
@@ -4631,7 +4627,7 @@
       </c>
       <c r="G119" s="11"/>
     </row>
-    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="45" t="s">
         <v>13</v>
       </c>
@@ -4647,7 +4643,7 @@
       </c>
       <c r="G120" s="11"/>
     </row>
-    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
         <v>16</v>
       </c>
@@ -4655,7 +4651,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="4" t="s">
         <v>9</v>
       </c>
@@ -4673,7 +4669,7 @@
       </c>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
         <v>9</v>
       </c>
@@ -4691,7 +4687,7 @@
       </c>
       <c r="G123" s="48"/>
     </row>
-    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="4" t="s">
         <v>9</v>
       </c>
@@ -4709,7 +4705,7 @@
       </c>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
         <v>16</v>
       </c>
@@ -4721,7 +4717,7 @@
       </c>
       <c r="G125" s="7"/>
     </row>
-    <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
         <v>16</v>
       </c>
@@ -4736,25 +4732,25 @@
       </c>
       <c r="G126" s="50"/>
     </row>
-    <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B127" s="59" t="s">
+    <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="60"/>
-      <c r="D127" s="60"/>
-      <c r="E127" s="60"/>
-      <c r="F127" s="60"/>
-      <c r="G127" s="60"/>
-    </row>
-    <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B128" s="67"/>
-      <c r="C128" s="68"/>
-      <c r="D128" s="68"/>
-      <c r="E128" s="68"/>
-      <c r="F128" s="68"/>
-      <c r="G128" s="68"/>
-    </row>
-    <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C127" s="62"/>
+      <c r="D127" s="62"/>
+      <c r="E127" s="62"/>
+      <c r="F127" s="62"/>
+      <c r="G127" s="62"/>
+    </row>
+    <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="65"/>
+      <c r="C128" s="66"/>
+      <c r="D128" s="66"/>
+      <c r="E128" s="66"/>
+      <c r="F128" s="66"/>
+      <c r="G128" s="66"/>
+    </row>
+    <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="51" t="s">
         <v>15</v>
       </c>
@@ -4779,7 +4775,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="51" t="s">
         <v>15</v>
       </c>
@@ -4806,7 +4802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="52" t="s">
         <v>13</v>
       </c>
@@ -4833,7 +4829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="52" t="s">
         <v>13</v>
       </c>
@@ -4860,7 +4856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="53" t="s">
         <v>16</v>
       </c>
@@ -4885,7 +4881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="55" t="s">
         <v>12</v>
       </c>
@@ -4914,7 +4910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="56" t="s">
         <v>14</v>
       </c>
@@ -4937,7 +4933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="56" t="s">
         <v>14</v>
       </c>
@@ -4951,7 +4947,7 @@
       </c>
       <c r="G136" s="11"/>
     </row>
-    <row r="137" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="54" t="s">
         <v>9</v>
       </c>
@@ -4969,7 +4965,7 @@
       </c>
       <c r="G137" s="11"/>
     </row>
-    <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="54" t="s">
         <v>9</v>
       </c>
@@ -4987,7 +4983,7 @@
       </c>
       <c r="G138" s="7"/>
     </row>
-    <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="54" t="s">
         <v>9</v>
       </c>
@@ -5005,7 +5001,7 @@
       </c>
       <c r="G139" s="7"/>
     </row>
-    <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="54" t="s">
         <v>9</v>
       </c>
@@ -5023,7 +5019,7 @@
       </c>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="53" t="s">
         <v>16</v>
       </c>
@@ -5039,25 +5035,25 @@
       </c>
       <c r="G141" s="7"/>
     </row>
-    <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B142" s="59" t="s">
+    <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="C142" s="60"/>
-      <c r="D142" s="60"/>
-      <c r="E142" s="60"/>
-      <c r="F142" s="60"/>
-      <c r="G142" s="60"/>
-    </row>
-    <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B143" s="67"/>
-      <c r="C143" s="68"/>
-      <c r="D143" s="68"/>
-      <c r="E143" s="68"/>
-      <c r="F143" s="68"/>
-      <c r="G143" s="68"/>
-    </row>
-    <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C142" s="62"/>
+      <c r="D142" s="62"/>
+      <c r="E142" s="62"/>
+      <c r="F142" s="62"/>
+      <c r="G142" s="62"/>
+    </row>
+    <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="65"/>
+      <c r="C143" s="66"/>
+      <c r="D143" s="66"/>
+      <c r="E143" s="66"/>
+      <c r="F143" s="66"/>
+      <c r="G143" s="66"/>
+    </row>
+    <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="55" t="s">
         <v>12</v>
       </c>
@@ -5084,7 +5080,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="55" t="s">
         <v>12</v>
       </c>
@@ -5113,7 +5109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="53" t="s">
         <v>16</v>
       </c>
@@ -5125,7 +5121,7 @@
       <c r="F146" s="13">
         <v>3</v>
       </c>
-      <c r="G146" s="83"/>
+      <c r="G146" s="60"/>
       <c r="I146" s="6" t="s">
         <v>13</v>
       </c>
@@ -5138,7 +5134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="55" t="s">
         <v>12</v>
       </c>
@@ -5157,7 +5153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="52" t="s">
         <v>13</v>
       </c>
@@ -5186,7 +5182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="52" t="s">
         <v>13</v>
       </c>
@@ -5211,7 +5207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="52" t="s">
         <v>13</v>
       </c>
@@ -5228,7 +5224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="52" t="s">
         <v>13</v>
       </c>
@@ -5246,7 +5242,7 @@
       </c>
       <c r="G151" s="11"/>
     </row>
-    <row r="152" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="54" t="s">
         <v>9</v>
       </c>
@@ -5264,7 +5260,7 @@
       </c>
       <c r="G152" s="11"/>
     </row>
-    <row r="153" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="54" t="s">
         <v>9</v>
       </c>
@@ -5282,7 +5278,7 @@
       </c>
       <c r="G153" s="7"/>
     </row>
-    <row r="154" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="54" t="s">
         <v>9</v>
       </c>
@@ -5298,7 +5294,7 @@
       <c r="F154" s="13"/>
       <c r="G154" s="26"/>
     </row>
-    <row r="155" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="51" t="s">
         <v>15</v>
       </c>
@@ -5314,7 +5310,7 @@
       </c>
       <c r="G155" s="11"/>
     </row>
-    <row r="156" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="51" t="s">
         <v>15</v>
       </c>
@@ -5328,7 +5324,7 @@
       <c r="F156" s="13"/>
       <c r="G156" s="11"/>
     </row>
-    <row r="157" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="56" t="s">
         <v>14</v>
       </c>
@@ -5344,7 +5340,7 @@
       </c>
       <c r="G157" s="11"/>
     </row>
-    <row r="158" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="56" t="s">
         <v>14</v>
       </c>
@@ -5360,23 +5356,23 @@
       </c>
       <c r="G158" s="7"/>
     </row>
-    <row r="159" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B159" s="59" t="s">
+    <row r="159" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="C159" s="60"/>
-      <c r="D159" s="60"/>
-      <c r="E159" s="60"/>
-      <c r="F159" s="60"/>
-      <c r="G159" s="60"/>
-    </row>
-    <row r="160" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B160" s="67"/>
-      <c r="C160" s="68"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="68"/>
-      <c r="F160" s="68"/>
-      <c r="G160" s="68"/>
+      <c r="C159" s="62"/>
+      <c r="D159" s="62"/>
+      <c r="E159" s="62"/>
+      <c r="F159" s="62"/>
+      <c r="G159" s="62"/>
+    </row>
+    <row r="160" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="65"/>
+      <c r="C160" s="66"/>
+      <c r="D160" s="66"/>
+      <c r="E160" s="66"/>
+      <c r="F160" s="66"/>
+      <c r="G160" s="66"/>
       <c r="I160" s="58" t="s">
         <v>188</v>
       </c>
@@ -5387,7 +5383,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="56" t="s">
         <v>14</v>
       </c>
@@ -5406,15 +5402,15 @@
         <v>9</v>
       </c>
       <c r="J161">
-        <f>F167+F168+F169+F170+F171+F172</f>
-        <v>19.75</v>
+        <f>F167+F168+F169+F170+F171+F174+F172+F173</f>
+        <v>21.25</v>
       </c>
       <c r="K161">
-        <f>E167+E168+E169+E170+E171+E172</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <f>E167+E168+E169+E170+E171+E174+E172+E173</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="56" t="s">
         <v>14</v>
       </c>
@@ -5427,15 +5423,15 @@
         <v>13</v>
       </c>
       <c r="J162">
-        <f>F176+F173+F174+F175+F182</f>
+        <f>F178+F175+F176+F177+F184</f>
         <v>16.68</v>
       </c>
       <c r="K162">
-        <f>E176+E173+E174+E175</f>
+        <f>E178+E175+E176+E177</f>
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="56" t="s">
         <v>14</v>
       </c>
@@ -5454,7 +5450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="56" t="s">
         <v>14</v>
       </c>
@@ -5468,15 +5464,15 @@
         <v>12</v>
       </c>
       <c r="J164">
-        <f>F165+F166+F181</f>
+        <f>F165+F166+F183</f>
         <v>10.48</v>
       </c>
       <c r="K164">
-        <f>E165+E166+E181</f>
+        <f>E165+E166+E183</f>
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="55" t="s">
         <v>12</v>
       </c>
@@ -5499,7 +5495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="55" t="s">
         <v>12</v>
       </c>
@@ -5518,7 +5514,7 @@
         <v>16</v>
       </c>
       <c r="J166">
-        <f>F177+F178+F183</f>
+        <f>F179+F180+F185</f>
         <v>17.600000000000001</v>
       </c>
       <c r="K166">
@@ -5526,7 +5522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="54" t="s">
         <v>9</v>
       </c>
@@ -5542,7 +5538,7 @@
       </c>
       <c r="G167" s="7"/>
     </row>
-    <row r="168" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="54" t="s">
         <v>9</v>
       </c>
@@ -5558,7 +5554,7 @@
       </c>
       <c r="G168" s="7"/>
     </row>
-    <row r="169" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="54" t="s">
         <v>9</v>
       </c>
@@ -5576,7 +5572,7 @@
       </c>
       <c r="G169" s="7"/>
     </row>
-    <row r="170" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="54" t="s">
         <v>9</v>
       </c>
@@ -5594,7 +5590,7 @@
       </c>
       <c r="G170" s="7"/>
     </row>
-    <row r="171" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="54" t="s">
         <v>9</v>
       </c>
@@ -5612,7 +5608,7 @@
       </c>
       <c r="G171" s="7"/>
     </row>
-    <row r="172" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="54" t="s">
         <v>9</v>
       </c>
@@ -5630,176 +5626,212 @@
       </c>
       <c r="G172" s="7"/>
     </row>
-    <row r="173" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B173" s="52" t="s">
-        <v>13</v>
+    <row r="173" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="54" t="s">
+        <v>9</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D173" s="15">
-        <v>19</v>
+        <v>223</v>
+      </c>
+      <c r="D173" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="E173" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F173" s="13">
-        <v>9.17</v>
-      </c>
-      <c r="G173" s="11"/>
-    </row>
-    <row r="174" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B174" s="52" t="s">
-        <v>13</v>
+        <v>1.5</v>
+      </c>
+      <c r="G173" s="7"/>
+    </row>
+    <row r="174" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="54" t="s">
+        <v>9</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D174" s="15">
-        <v>9</v>
+        <v>224</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="E174" s="13">
-        <v>2</v>
-      </c>
-      <c r="F174" s="13">
-        <v>2</v>
-      </c>
-      <c r="G174" s="7"/>
-    </row>
-    <row r="175" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="F174" s="13"/>
+      <c r="G174" s="11"/>
+    </row>
+    <row r="175" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D175" s="15">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E175" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F175" s="13">
-        <v>3.67</v>
+        <v>9.17</v>
       </c>
       <c r="G175" s="11"/>
     </row>
-    <row r="176" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C176" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D176" s="15">
+        <v>9</v>
+      </c>
+      <c r="E176" s="13">
+        <v>2</v>
+      </c>
+      <c r="F176" s="13">
+        <v>2</v>
+      </c>
+      <c r="G176" s="7"/>
+    </row>
+    <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D177" s="15">
+        <v>39</v>
+      </c>
+      <c r="E177" s="13">
+        <v>5</v>
+      </c>
+      <c r="F177" s="13">
+        <v>3.67</v>
+      </c>
+      <c r="G177" s="11"/>
+    </row>
+    <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="D176" s="13"/>
-      <c r="E176" s="13">
+      <c r="D178" s="13"/>
+      <c r="E178" s="13">
         <v>1</v>
       </c>
-      <c r="F176" s="13">
+      <c r="F178" s="13">
         <v>0.17</v>
       </c>
-      <c r="G176" s="50"/>
-    </row>
-    <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B177" s="53" t="s">
+      <c r="G178" s="50"/>
+    </row>
+    <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C177" s="13" t="s">
+      <c r="C179" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13">
+      <c r="D179" s="13"/>
+      <c r="E179" s="13">
         <v>6</v>
       </c>
-      <c r="F177" s="13">
+      <c r="F179" s="13">
         <v>10.6</v>
       </c>
-      <c r="G177" s="82"/>
-    </row>
-    <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B178" s="53" t="s">
+      <c r="G179" s="59"/>
+    </row>
+    <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C180" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13">
-        <v>7</v>
-      </c>
-      <c r="G178" s="82"/>
-    </row>
-    <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B179" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C179" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13"/>
-      <c r="G179" s="1"/>
-    </row>
-    <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B180" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>215</v>
       </c>
       <c r="D180" s="13"/>
       <c r="E180" s="13"/>
-      <c r="F180" s="13"/>
-      <c r="G180" s="1"/>
-    </row>
-    <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B181" s="55" t="s">
-        <v>12</v>
+      <c r="F180" s="13">
+        <v>7</v>
+      </c>
+      <c r="G180" s="59"/>
+    </row>
+    <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="51" t="s">
+        <v>15</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D181" s="13"/>
-      <c r="E181" s="13">
-        <v>1</v>
-      </c>
-      <c r="F181" s="13">
-        <v>4</v>
-      </c>
-      <c r="G181" s="7"/>
-    </row>
-    <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B182" s="52" t="s">
-        <v>13</v>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="51" t="s">
+        <v>15</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
-      <c r="F182" s="13">
+      <c r="F182" s="13"/>
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D183" s="13"/>
+      <c r="E183" s="13">
+        <v>1</v>
+      </c>
+      <c r="F183" s="13">
+        <v>4</v>
+      </c>
+      <c r="G183" s="7"/>
+    </row>
+    <row r="184" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13">
         <v>1.67</v>
       </c>
-      <c r="G182" s="11"/>
-    </row>
-    <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B183" s="53" t="s">
+      <c r="G184" s="11"/>
+    </row>
+    <row r="185" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C183" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="13">
+      <c r="C185" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13">
         <v>0</v>
       </c>
-      <c r="G183" s="1"/>
+      <c r="G185" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="B72:G73"/>
     <mergeCell ref="B41:G42"/>
     <mergeCell ref="B159:G160"/>
     <mergeCell ref="B4:G5"/>
@@ -5816,8 +5848,6 @@
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="B72:G73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5837,17 +5867,17 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.52734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.52734375" customWidth="1"/>
-    <col min="2" max="2" width="35.46875" customWidth="1"/>
-    <col min="3" max="3" width="27.46875" customWidth="1"/>
-    <col min="4" max="4" width="10.46875" customWidth="1"/>
-    <col min="7" max="7" width="17.46875" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>91</v>
       </c>
@@ -5877,7 +5907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5906,7 +5936,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5929,7 +5959,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5952,7 +5982,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5967,7 +5997,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -5986,7 +6016,7 @@
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -6009,7 +6039,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -6024,7 +6054,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -6047,7 +6077,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -6062,7 +6092,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -6077,7 +6107,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -6094,7 +6124,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -6109,7 +6139,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -6126,7 +6156,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -6141,7 +6171,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -6156,7 +6186,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -6171,7 +6201,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -6194,7 +6224,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -6217,7 +6247,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -6231,7 +6261,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -6252,7 +6282,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -6267,7 +6297,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -6282,7 +6312,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -6303,7 +6333,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -6318,7 +6348,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -6341,7 +6371,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -6356,7 +6386,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -6379,7 +6409,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -6394,7 +6424,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -6411,7 +6441,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -6434,7 +6464,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -6455,7 +6485,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -6476,7 +6506,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -6499,7 +6529,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -6516,7 +6546,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -6531,7 +6561,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -6554,7 +6584,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -6571,7 +6601,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -6586,7 +6616,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -6607,7 +6637,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6630,7 +6660,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6653,7 +6683,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6676,7 +6706,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6699,7 +6729,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6720,7 +6750,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6737,7 +6767,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6758,7 +6788,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -6781,7 +6811,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>48</v>
       </c>
@@ -6807,6 +6837,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -7015,38 +7062,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7069,9 +7088,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ DemoFinal.xlsx
+++ b/Documentación/To Do - Requisitos_ DemoFinal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BC73E7-32CC-4505-9CCC-8C2797CEBCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA293E1E-9C17-48AB-98AA-7A94C447E3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1188,18 +1188,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1210,12 +1198,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1229,6 +1211,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1255,6 +1246,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2277,20 +2277,20 @@
   </sheetPr>
   <dimension ref="A2:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G167" sqref="G167"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.453125" customWidth="1"/>
-    <col min="11" max="11" width="35.453125" customWidth="1"/>
-    <col min="12" max="12" width="26.54296875" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="12" max="12" width="26.5546875" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2319,7 +2319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2332,11 +2332,11 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>526.94999999999993</v>
+        <v>532.44999999999993</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
-      <c r="K3" s="78">
+      <c r="K3" s="75">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130+J145+J161</f>
         <v>141.25</v>
       </c>
@@ -2345,32 +2345,32 @@
       </c>
       <c r="M3">
         <f>K3+K6+K9+K12+K15+K18</f>
-        <v>522.95000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="63" t="s">
+        <v>528.45000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="78"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
+      <c r="K4" s="75"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="78"/>
+      <c r="K5" s="75"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -2390,10 +2390,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="69">
         <f>F7+F13+F20+F43+F45+F47+F46+J76+J133+J148+J164</f>
         <v>91.320000000000007</v>
       </c>
@@ -2416,8 +2416,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="62"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
@@ -2437,8 +2437,8 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="69"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
@@ -2458,12 +2458,12 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K9" s="69">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74+J131+J146+J162</f>
-        <v>114.78</v>
+        <v>120.28</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2483,8 +2483,8 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="62"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="69"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -2501,8 +2501,8 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="69"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
@@ -2521,10 +2521,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="62">
+      <c r="K12" s="69">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134+J149+J165</f>
         <v>96.85</v>
       </c>
@@ -2544,8 +2544,8 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="62"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="69"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -2562,8 +2562,8 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="62"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="69"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -2580,10 +2580,10 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="73" t="s">
+      <c r="J15" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="62">
+      <c r="K15" s="69">
         <f>F10+F16+F39+F40+F49+F50+F51+J75+J132</f>
         <v>42</v>
       </c>
@@ -2603,8 +2603,8 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="62"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="69"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -2621,8 +2621,8 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="62"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="69"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -2641,10 +2641,10 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="76" t="s">
+      <c r="J18" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="62">
+      <c r="K18" s="69">
         <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+J78+J135</f>
         <v>36.75</v>
       </c>
@@ -2667,10 +2667,10 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="62"/>
-    </row>
-    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="J19" s="74"/>
+      <c r="K19" s="69"/>
+    </row>
+    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2687,10 +2687,10 @@
         <v>20</v>
       </c>
       <c r="G20" s="41"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="62"/>
-    </row>
-    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="J20" s="74"/>
+      <c r="K20" s="69"/>
+    </row>
+    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2725,13 +2725,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-    </row>
-    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+    </row>
+    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -3052,25 +3052,25 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="63" t="s">
+    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B41" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-    </row>
-    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="65"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-    </row>
-    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+    </row>
+    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+    </row>
+    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3740,14 +3740,14 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="63" t="s">
+      <c r="B72" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
       <c r="I72" s="33" t="s">
         <v>68</v>
       </c>
@@ -3759,12 +3759,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="65"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4724,14 +4724,14 @@
       <c r="G126" s="50"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="63" t="s">
+      <c r="B127" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="C127" s="64"/>
-      <c r="D127" s="64"/>
-      <c r="E127" s="64"/>
-      <c r="F127" s="64"/>
-      <c r="G127" s="64"/>
+      <c r="C127" s="60"/>
+      <c r="D127" s="60"/>
+      <c r="E127" s="60"/>
+      <c r="F127" s="60"/>
+      <c r="G127" s="60"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="67"/>
@@ -5027,14 +5027,14 @@
       <c r="G141" s="7"/>
     </row>
     <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="63" t="s">
+      <c r="B142" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="C142" s="64"/>
-      <c r="D142" s="64"/>
-      <c r="E142" s="64"/>
-      <c r="F142" s="64"/>
-      <c r="G142" s="64"/>
+      <c r="C142" s="60"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="60"/>
+      <c r="G142" s="60"/>
     </row>
     <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="67"/>
@@ -5346,14 +5346,14 @@
       <c r="G158" s="7"/>
     </row>
     <row r="159" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="63" t="s">
+      <c r="B159" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="C159" s="64"/>
-      <c r="D159" s="64"/>
-      <c r="E159" s="64"/>
-      <c r="F159" s="64"/>
-      <c r="G159" s="64"/>
+      <c r="C159" s="60"/>
+      <c r="D159" s="60"/>
+      <c r="E159" s="60"/>
+      <c r="F159" s="60"/>
+      <c r="G159" s="60"/>
     </row>
     <row r="160" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="67"/>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="J162">
         <f>F176+F173+F174+F175+F182</f>
-        <v>16.68</v>
+        <v>22.18</v>
       </c>
       <c r="K162">
         <f>E176+E173+E174+E175</f>
@@ -5657,7 +5657,7 @@
         <v>5</v>
       </c>
       <c r="F175" s="13">
-        <v>3.67</v>
+        <v>5.67</v>
       </c>
       <c r="G175" s="11"/>
     </row>
@@ -5673,9 +5673,9 @@
         <v>1</v>
       </c>
       <c r="F176" s="13">
-        <v>0.17</v>
-      </c>
-      <c r="G176" s="50"/>
+        <v>1.17</v>
+      </c>
+      <c r="G176" s="11"/>
     </row>
     <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="53" t="s">
@@ -5749,12 +5749,14 @@
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
       <c r="F182" s="13">
-        <v>1.67</v>
+        <v>4.17</v>
       </c>
       <c r="G182" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="B159:G160"/>
     <mergeCell ref="B4:G5"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="J22:L22"/>
@@ -5771,8 +5773,6 @@
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
     <mergeCell ref="B72:G73"/>
-    <mergeCell ref="B41:G42"/>
-    <mergeCell ref="B159:G160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5792,13 +5792,13 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5861,7 +5861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -6126,7 +6126,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -6186,7 +6186,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -6222,7 +6222,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -6237,7 +6237,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -6273,7 +6273,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -6311,7 +6311,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -6349,7 +6349,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -6366,7 +6366,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -6471,7 +6471,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -6486,7 +6486,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -6526,7 +6526,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -6541,7 +6541,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6692,7 +6692,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6762,23 +6762,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6987,10 +6970,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7013,20 +7024,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ DemoFinal.xlsx
+++ b/Documentación/To Do - Requisitos_ DemoFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA293E1E-9C17-48AB-98AA-7A94C447E3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB12DC4-B98D-4C1D-87F5-991E091E134B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1200,6 +1200,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,12 +1216,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1323,9 +1323,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>20580</xdr:colOff>
+      <xdr:colOff>16770</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19568</xdr:rowOff>
+      <xdr:rowOff>15758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1386,7 +1386,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>16323</xdr:rowOff>
+      <xdr:rowOff>20133</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1445,9 +1445,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>20579</xdr:colOff>
+      <xdr:colOff>16769</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>16230</xdr:rowOff>
+      <xdr:rowOff>20040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1506,9 +1506,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>20579</xdr:colOff>
+      <xdr:colOff>16769</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>15465</xdr:rowOff>
+      <xdr:rowOff>19275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1630,7 +1630,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>19611</xdr:rowOff>
+      <xdr:rowOff>15801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2277,8 +2277,8 @@
   </sheetPr>
   <dimension ref="A2:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J157" sqref="J157"/>
+    <sheetView tabSelected="1" topLeftCell="B155" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K171" sqref="K171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>532.44999999999993</v>
+        <v>533.44999999999993</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="22"/>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="M3">
         <f>K3+K6+K9+K12+K15+K18</f>
-        <v>528.45000000000005</v>
+        <v>529.45000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="K9" s="69">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74+J131+J146+J162</f>
-        <v>120.28</v>
+        <v>121.28</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2521,7 +2521,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="65" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="69">
@@ -2544,7 +2544,7 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="64"/>
+      <c r="J13" s="66"/>
       <c r="K13" s="69"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="65"/>
+      <c r="J14" s="67"/>
       <c r="K14" s="69"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2725,11 +2725,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="66" t="s">
+      <c r="J22" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
     </row>
     <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -4734,12 +4734,12 @@
       <c r="G127" s="60"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="67"/>
-      <c r="C128" s="68"/>
-      <c r="D128" s="68"/>
-      <c r="E128" s="68"/>
-      <c r="F128" s="68"/>
-      <c r="G128" s="68"/>
+      <c r="B128" s="63"/>
+      <c r="C128" s="64"/>
+      <c r="D128" s="64"/>
+      <c r="E128" s="64"/>
+      <c r="F128" s="64"/>
+      <c r="G128" s="64"/>
     </row>
     <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="51" t="s">
@@ -5037,12 +5037,12 @@
       <c r="G142" s="60"/>
     </row>
     <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="67"/>
-      <c r="C143" s="68"/>
-      <c r="D143" s="68"/>
-      <c r="E143" s="68"/>
-      <c r="F143" s="68"/>
-      <c r="G143" s="68"/>
+      <c r="B143" s="63"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="64"/>
+      <c r="F143" s="64"/>
+      <c r="G143" s="64"/>
     </row>
     <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="55" t="s">
@@ -5356,12 +5356,12 @@
       <c r="G159" s="60"/>
     </row>
     <row r="160" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="67"/>
-      <c r="C160" s="68"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="68"/>
-      <c r="F160" s="68"/>
-      <c r="G160" s="68"/>
+      <c r="B160" s="63"/>
+      <c r="C160" s="64"/>
+      <c r="D160" s="64"/>
+      <c r="E160" s="64"/>
+      <c r="F160" s="64"/>
+      <c r="G160" s="64"/>
       <c r="I160" s="58" t="s">
         <v>188</v>
       </c>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="J162">
         <f>F176+F173+F174+F175+F182</f>
-        <v>22.18</v>
+        <v>23.18</v>
       </c>
       <c r="K162">
         <f>E176+E173+E174+E175</f>
@@ -5749,12 +5749,14 @@
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
       <c r="F182" s="13">
-        <v>4.17</v>
+        <v>5.17</v>
       </c>
       <c r="G182" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="B72:G73"/>
     <mergeCell ref="B41:G42"/>
     <mergeCell ref="B159:G160"/>
     <mergeCell ref="B4:G5"/>
@@ -5771,8 +5773,6 @@
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="B72:G73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6762,6 +6762,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6970,38 +6987,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7024,9 +7013,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ DemoFinal.xlsx
+++ b/Documentación/To Do - Requisitos_ DemoFinal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34616\Desktop\CEU\tercer año\primer_semestre\ing_software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DaniPC\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB12DC4-B98D-4C1D-87F5-991E091E134B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D583457C-F4C2-46F0-A49E-7D84664D2725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="225">
   <si>
     <t>Nombre</t>
   </si>
@@ -359,9 +359,6 @@
     <t>Riesgo</t>
   </si>
   <si>
-    <t>Fecha de compromiso</t>
-  </si>
-  <si>
     <t>Total tareas completadas:</t>
   </si>
   <si>
@@ -734,17 +731,23 @@
     <t>Diseñar imágenes poker</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Terminar Poker con dados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBDD </t>
+  </si>
+  <si>
+    <t>Arreglos</t>
+  </si>
+  <si>
+    <t>Demo 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-  </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -792,12 +795,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -820,7 +817,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,50 +880,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -950,6 +905,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,7 +1071,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1127,42 +1094,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1170,16 +1114,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1187,7 +1131,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1206,57 +1153,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2275,10 +2226,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P182"/>
+  <dimension ref="A2:P188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B155" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K171" sqref="K171"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2328,49 +2279,42 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E998)</f>
-        <v>433.2</v>
+        <v>448.2</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>533.44999999999993</v>
+        <v>580.9699999999998</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="75">
+      <c r="J3" s="19"/>
+      <c r="K3" s="66">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130+J145+J161</f>
-        <v>141.25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>222</v>
-      </c>
-      <c r="M3">
-        <f>K3+K6+K9+K12+K15+K18</f>
-        <v>529.45000000000005</v>
+        <v>147.25</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="J4" s="23" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="J4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="75"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="75"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="66"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -2390,12 +2334,12 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="50">
         <f>F7+F13+F20+F43+F45+F47+F46+J76+J133+J148+J164</f>
-        <v>91.320000000000007</v>
+        <v>97.84</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2416,8 +2360,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="69"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="50"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
@@ -2437,8 +2381,8 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="50"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
@@ -2458,12 +2402,12 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="79" t="s">
+      <c r="J9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="50">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74+J131+J146+J162</f>
-        <v>121.28</v>
+        <v>121.78</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2483,8 +2427,8 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="69"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -2501,8 +2445,8 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="69"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="50"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
@@ -2521,12 +2465,12 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="65" t="s">
+      <c r="J12" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="50">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134+J149+J165</f>
-        <v>96.85</v>
+        <v>100.85</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2544,8 +2488,8 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="69"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="50"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -2562,8 +2506,8 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="69"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="50"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -2580,11 +2524,11 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="70" t="s">
+      <c r="J15" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="69">
-        <f>F10+F16+F39+F40+F49+F50+F51+J75+J132</f>
+      <c r="K15" s="50">
+        <f>F10+F16+F39+F40+F49+F50+F51+J75+J132+J147+J163</f>
         <v>42</v>
       </c>
     </row>
@@ -2603,8 +2547,8 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="69"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -2621,8 +2565,8 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="69"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -2641,12 +2585,12 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="73" t="s">
+      <c r="J18" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="69">
-        <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+J78+J135</f>
-        <v>36.75</v>
+      <c r="K18" s="50">
+        <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+J78+J135+J150+J166</f>
+        <v>67.25</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2667,8 +2611,8 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="69"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="50"/>
     </row>
     <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -2686,9 +2630,9 @@
       <c r="F20" s="1">
         <v>20</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="69"/>
+      <c r="G20" s="32"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="50"/>
     </row>
     <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -2725,11 +2669,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="68" t="s">
+      <c r="J22" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
     </row>
     <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2990,7 +2934,7 @@
       <c r="D37" s="1">
         <v>33</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="22">
         <v>1.5</v>
       </c>
       <c r="F37" s="1">
@@ -3053,22 +2997,22 @@
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
     </row>
     <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="61"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
     </row>
     <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3129,7 +3073,7 @@
         <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D46" s="1">
         <v>47</v>
@@ -3195,13 +3139,13 @@
         <v>6</v>
       </c>
       <c r="G49" s="7"/>
-      <c r="I49" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="J49" s="33" t="s">
+      <c r="I49" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="J49" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K49" s="33" t="s">
+      <c r="K49" s="24" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3430,13 +3374,13 @@
         <v>3</v>
       </c>
       <c r="G58" s="7"/>
-      <c r="I58" s="33" t="s">
+      <c r="I58" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="J58" s="33" t="s">
+      <c r="J58" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K58" s="33" t="s">
+      <c r="K58" s="24" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3683,7 +3627,7 @@
       <c r="F68" s="1">
         <v>0</v>
       </c>
-      <c r="G68" s="26"/>
+      <c r="G68" s="23"/>
     </row>
     <row r="69" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
@@ -3740,31 +3684,31 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="I72" s="33" t="s">
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="I72" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J72" s="33" t="s">
+      <c r="J72" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K72" s="33" t="s">
+      <c r="K72" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="61"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -3810,16 +3754,16 @@
       <c r="B75" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="C75" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D75" s="34" t="s">
+      <c r="D75" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="34">
+      <c r="E75" s="25">
         <v>0.5</v>
       </c>
-      <c r="F75" s="34">
+      <c r="F75" s="25">
         <v>2</v>
       </c>
       <c r="G75" s="7"/>
@@ -3839,17 +3783,17 @@
       <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="C76" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D76" s="34" t="s">
+      <c r="D76" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="34">
-        <v>1</v>
-      </c>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
+      <c r="E76" s="25">
+        <v>1</v>
+      </c>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
       <c r="I76" s="5" t="s">
         <v>12</v>
       </c>
@@ -3866,19 +3810,19 @@
       <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="C77" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D77" s="34" t="s">
+      <c r="D77" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="34">
+      <c r="E77" s="25">
         <v>2</v>
       </c>
-      <c r="F77" s="34">
+      <c r="F77" s="25">
         <v>5.5</v>
       </c>
-      <c r="G77" s="49"/>
+      <c r="G77" s="40"/>
       <c r="I77" s="8" t="s">
         <v>14</v>
       </c>
@@ -3895,25 +3839,25 @@
       <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="C78" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="34" t="s">
+      <c r="D78" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="34">
+      <c r="E78" s="25">
         <v>0.5</v>
       </c>
-      <c r="F78" s="34">
+      <c r="F78" s="25">
         <v>0.5</v>
       </c>
-      <c r="G78" s="49"/>
+      <c r="G78" s="40"/>
       <c r="I78" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J78">
         <f>F79+F81+F82+F97+F121+F125+F126</f>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="K78">
         <f>E79+E82+E81+E97+E121</f>
@@ -3924,14 +3868,14 @@
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="34" t="s">
+      <c r="C79" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25">
         <v>6</v>
       </c>
-      <c r="F79" s="34">
+      <c r="F79" s="25">
         <v>4</v>
       </c>
       <c r="G79" s="11"/>
@@ -3940,46 +3884,48 @@
       <c r="B80" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="34" t="s">
+      <c r="C80" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34">
+      <c r="D80" s="25"/>
+      <c r="E80" s="25">
         <v>3</v>
       </c>
-      <c r="F80" s="34">
+      <c r="F80" s="25">
         <v>9</v>
       </c>
-      <c r="G80" s="49"/>
+      <c r="G80" s="40"/>
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="34" t="s">
+      <c r="C81" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34">
+      <c r="D81" s="25"/>
+      <c r="E81" s="25">
         <v>3</v>
       </c>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
+      <c r="F81" s="25">
+        <v>1</v>
+      </c>
+      <c r="G81" s="25"/>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="34" t="s">
+      <c r="C82" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D82" s="34" t="s">
+      <c r="D82" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="34">
+      <c r="E82" s="25">
         <v>3</v>
       </c>
-      <c r="F82" s="34">
+      <c r="F82" s="25">
         <v>2</v>
       </c>
       <c r="G82" s="11"/>
@@ -3988,16 +3934,16 @@
       <c r="B83" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D83" s="34" t="s">
+      <c r="D83" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="34">
-        <v>1</v>
-      </c>
-      <c r="F83" s="34">
+      <c r="E83" s="25">
+        <v>1</v>
+      </c>
+      <c r="F83" s="25">
         <v>0.3</v>
       </c>
       <c r="G83" s="7"/>
@@ -4006,94 +3952,94 @@
       <c r="B84" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D84" s="34" t="s">
+      <c r="D84" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D85" s="34" t="s">
+      <c r="D85" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="C86" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="34" t="s">
+      <c r="D86" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="36" t="s">
+      <c r="B87" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="37" t="s">
+      <c r="C87" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D87" s="37">
+      <c r="D87" s="28">
         <v>44</v>
       </c>
-      <c r="E87" s="37">
+      <c r="E87" s="28">
         <v>3</v>
       </c>
-      <c r="F87" s="37">
+      <c r="F87" s="28">
         <v>8</v>
       </c>
-      <c r="G87" s="37"/>
+      <c r="G87" s="28"/>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="34" t="s">
+      <c r="C88" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="34" t="s">
+      <c r="D88" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="34">
-        <v>1</v>
-      </c>
-      <c r="F88" s="34">
+      <c r="E88" s="25">
+        <v>1</v>
+      </c>
+      <c r="F88" s="25">
         <v>2.5</v>
       </c>
-      <c r="G88" s="49"/>
+      <c r="G88" s="40"/>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="34" t="s">
+      <c r="C89" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D89" s="34" t="s">
+      <c r="D89" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="34">
-        <v>1</v>
-      </c>
-      <c r="F89" s="34">
+      <c r="E89" s="25">
+        <v>1</v>
+      </c>
+      <c r="F89" s="25">
         <v>0.5</v>
       </c>
       <c r="G89" s="7"/>
@@ -4102,16 +4048,16 @@
       <c r="B90" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="34" t="s">
+      <c r="C90" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D90" s="34" t="s">
+      <c r="D90" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E90" s="34">
+      <c r="E90" s="25">
         <v>2</v>
       </c>
-      <c r="F90" s="34">
+      <c r="F90" s="25">
         <v>0.5</v>
       </c>
       <c r="G90" s="7"/>
@@ -4120,16 +4066,16 @@
       <c r="B91" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C91" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D91" s="34" t="s">
+      <c r="C91" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E91" s="34">
+      <c r="E91" s="25">
         <v>6</v>
       </c>
-      <c r="F91" s="34">
+      <c r="F91" s="25">
         <v>5.7</v>
       </c>
       <c r="G91" s="11"/>
@@ -4138,13 +4084,13 @@
       <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="34" t="s">
+      <c r="C92" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D92" s="34" t="s">
+      <c r="D92" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E92" s="34">
+      <c r="E92" s="25">
         <v>4</v>
       </c>
       <c r="F92">
@@ -4156,16 +4102,16 @@
       <c r="B93" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="34" t="s">
+      <c r="C93" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D93" s="34" t="s">
+      <c r="D93" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="34">
-        <v>1</v>
-      </c>
-      <c r="F93" s="34">
+      <c r="E93" s="25">
+        <v>1</v>
+      </c>
+      <c r="F93" s="25">
         <v>2</v>
       </c>
       <c r="G93" s="7"/>
@@ -4174,16 +4120,16 @@
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="34" t="s">
+      <c r="C94" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D94" s="34" t="s">
+      <c r="D94" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="34">
-        <v>1</v>
-      </c>
-      <c r="F94" s="34">
+      <c r="E94" s="25">
+        <v>1</v>
+      </c>
+      <c r="F94" s="25">
         <v>0.75</v>
       </c>
       <c r="G94" s="7"/>
@@ -4192,34 +4138,34 @@
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="34" t="s">
+      <c r="C95" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D95" s="34" t="s">
+      <c r="D95" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="34">
+      <c r="E95" s="25">
         <v>2</v>
       </c>
-      <c r="F95" s="34">
+      <c r="F95" s="25">
         <v>4</v>
       </c>
       <c r="G95" s="7"/>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="40" t="s">
+      <c r="B96" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="37" t="s">
+      <c r="C96" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D96" s="37">
+      <c r="D96" s="28">
         <v>40</v>
       </c>
-      <c r="E96" s="37">
+      <c r="E96" s="28">
         <v>0.5</v>
       </c>
-      <c r="F96" s="37">
+      <c r="F96" s="28">
         <v>0.5</v>
       </c>
       <c r="G96" s="7"/>
@@ -4228,48 +4174,48 @@
       <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="37" t="s">
+      <c r="C97" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D97" s="37">
+      <c r="D97" s="28">
         <v>40</v>
       </c>
-      <c r="E97" s="37">
+      <c r="E97" s="28">
         <v>0.5</v>
       </c>
-      <c r="F97" s="37">
+      <c r="F97" s="28">
         <v>1</v>
       </c>
       <c r="G97" s="7"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D98" s="37">
+      <c r="B98" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98" s="28">
         <v>48</v>
       </c>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
       <c r="G98" s="11"/>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C99" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D99" s="37">
+      <c r="C99" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" s="28">
         <v>48</v>
       </c>
-      <c r="E99" s="37">
+      <c r="E99" s="28">
         <v>3</v>
       </c>
-      <c r="F99" s="37">
+      <c r="F99" s="28">
         <v>5</v>
       </c>
       <c r="G99" s="11"/>
@@ -4278,32 +4224,32 @@
       <c r="B100" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="D100" s="34"/>
-      <c r="E100" s="34">
+      <c r="C100" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25">
         <v>0.5</v>
       </c>
-      <c r="F100" s="34">
+      <c r="F100" s="25">
         <v>0.1</v>
       </c>
       <c r="G100" s="7"/>
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="40" t="s">
+      <c r="B101" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C101" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D101" s="37" t="s">
+      <c r="C101" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="37">
+      <c r="E101" s="28">
         <v>0.2</v>
       </c>
-      <c r="F101" s="37">
+      <c r="F101" s="28">
         <v>0.5</v>
       </c>
       <c r="G101" s="7"/>
@@ -4312,14 +4258,14 @@
       <c r="B102" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34">
-        <v>1</v>
-      </c>
-      <c r="F102" s="34">
+      <c r="C102" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25">
+        <v>1</v>
+      </c>
+      <c r="F102" s="25">
         <v>1.5</v>
       </c>
       <c r="G102" s="7"/>
@@ -4329,7 +4275,7 @@
         <v>13</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D103" s="1">
         <v>39</v>
@@ -4347,7 +4293,7 @@
         <v>13</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
@@ -4361,187 +4307,187 @@
       <c r="G104" s="7"/>
     </row>
     <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="42" t="s">
+      <c r="B105" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="34" t="s">
+      <c r="C105" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="25">
+        <v>4</v>
+      </c>
+      <c r="F105" s="25">
+        <v>10</v>
+      </c>
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="25">
+        <v>0</v>
+      </c>
+      <c r="F106" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="25">
+        <v>0</v>
+      </c>
+      <c r="F107" s="25">
+        <v>1</v>
+      </c>
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="25">
+        <v>0</v>
+      </c>
+      <c r="F108" s="25">
+        <v>3</v>
+      </c>
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D109" s="25">
+        <v>24</v>
+      </c>
+      <c r="E109" s="25">
+        <v>15</v>
+      </c>
+      <c r="F109" s="25">
+        <v>6</v>
+      </c>
+      <c r="G109" s="11"/>
+    </row>
+    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D105" s="34" t="s">
+      <c r="D110" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E105" s="34">
-        <v>4</v>
-      </c>
-      <c r="F105" s="34">
-        <v>10</v>
-      </c>
-      <c r="G105" s="7"/>
-    </row>
-    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="42" t="s">
+      <c r="E110" s="25">
+        <v>3</v>
+      </c>
+      <c r="F110" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G110" s="7"/>
+    </row>
+    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="D106" s="34" t="s">
+      <c r="C111" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D111" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E106" s="34">
-        <v>0</v>
-      </c>
-      <c r="F106" s="34">
-        <v>2.5</v>
-      </c>
-      <c r="G106" s="7"/>
-    </row>
-    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="D107" s="34" t="s">
+      <c r="E111" s="25">
+        <v>2</v>
+      </c>
+      <c r="F111" s="25">
+        <v>1</v>
+      </c>
+      <c r="G111" s="7"/>
+    </row>
+    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D112" s="25">
+        <v>23</v>
+      </c>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+    </row>
+    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D113" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E107" s="34">
-        <v>0</v>
-      </c>
-      <c r="F107" s="34">
-        <v>1</v>
-      </c>
-      <c r="G107" s="7"/>
-    </row>
-    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="D108" s="34" t="s">
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+    </row>
+    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D114" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E108" s="34">
-        <v>0</v>
-      </c>
-      <c r="F108" s="34">
-        <v>3</v>
-      </c>
-      <c r="G108" s="7"/>
-    </row>
-    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D109" s="34">
-        <v>24</v>
-      </c>
-      <c r="E109" s="34">
-        <v>15</v>
-      </c>
-      <c r="F109" s="34">
-        <v>6</v>
-      </c>
-      <c r="G109" s="11"/>
-    </row>
-    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="D110" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="34">
-        <v>3</v>
-      </c>
-      <c r="F110" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="G110" s="7"/>
-    </row>
-    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="D111" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="34">
-        <v>2</v>
-      </c>
-      <c r="F111" s="34">
-        <v>1</v>
-      </c>
-      <c r="G111" s="7"/>
-    </row>
-    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C112" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="D112" s="34">
-        <v>23</v>
-      </c>
-      <c r="E112" s="34"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="34"/>
-    </row>
-    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C113" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="D113" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-    </row>
-    <row r="114" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C114" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="D114" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="34"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C115" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="D115" s="37">
+      <c r="C115" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D115" s="28">
         <v>29</v>
       </c>
-      <c r="E115" s="37">
+      <c r="E115" s="28">
         <v>10</v>
       </c>
-      <c r="F115" s="37">
+      <c r="F115" s="28">
         <v>6</v>
       </c>
       <c r="G115" s="11"/>
@@ -4550,16 +4496,16 @@
       <c r="B116" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C116" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D116" s="34">
+      <c r="C116" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D116" s="25">
         <v>45</v>
       </c>
-      <c r="E116" s="34">
+      <c r="E116" s="25">
         <v>2</v>
       </c>
-      <c r="F116" s="34">
+      <c r="F116" s="25">
         <v>1</v>
       </c>
       <c r="G116" s="11"/>
@@ -4568,68 +4514,68 @@
       <c r="B117" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C117" s="34" t="s">
+      <c r="C117" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" s="25">
+        <v>10</v>
+      </c>
+      <c r="E117" s="25">
+        <v>1</v>
+      </c>
+      <c r="F117" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G117" s="11"/>
+    </row>
+    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="D117" s="34">
-        <v>10</v>
-      </c>
-      <c r="E117" s="34">
-        <v>1</v>
-      </c>
-      <c r="F117" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="G117" s="11"/>
-    </row>
-    <row r="118" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="45" t="s">
+      <c r="D118" s="25">
+        <v>37</v>
+      </c>
+      <c r="E118" s="25">
+        <v>5</v>
+      </c>
+      <c r="F118" s="25">
+        <v>12</v>
+      </c>
+      <c r="G118" s="7"/>
+    </row>
+    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C118" s="34" t="s">
+      <c r="C119" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="D118" s="34">
-        <v>37</v>
-      </c>
-      <c r="E118" s="34">
-        <v>5</v>
-      </c>
-      <c r="F118" s="34">
+      <c r="D119" s="25">
         <v>12</v>
       </c>
-      <c r="G118" s="7"/>
-    </row>
-    <row r="119" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="45" t="s">
+      <c r="E119" s="25">
+        <v>7</v>
+      </c>
+      <c r="F119" s="25">
+        <v>0.17</v>
+      </c>
+      <c r="G119" s="11"/>
+    </row>
+    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C119" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="D119" s="34">
-        <v>12</v>
-      </c>
-      <c r="E119" s="34">
-        <v>7</v>
-      </c>
-      <c r="F119" s="34">
-        <v>0.17</v>
-      </c>
-      <c r="G119" s="11"/>
-    </row>
-    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C120" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="D120" s="46"/>
-      <c r="E120" s="46">
-        <v>1</v>
-      </c>
-      <c r="F120" s="46">
+      <c r="C120" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37">
+        <v>1</v>
+      </c>
+      <c r="F120" s="37">
         <v>1.5</v>
       </c>
       <c r="G120" s="11"/>
@@ -4638,24 +4584,24 @@
       <c r="B121" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C121" s="47" t="s">
-        <v>125</v>
+      <c r="C121" s="38" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C122" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="D122" s="34" t="s">
+      <c r="C122" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D122" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="34">
+      <c r="E122" s="25">
         <v>2</v>
       </c>
-      <c r="F122" s="34">
+      <c r="F122" s="25">
         <v>1.5</v>
       </c>
       <c r="G122" s="7"/>
@@ -4664,34 +4610,34 @@
       <c r="B123" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C123" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="D123" s="34" t="s">
+      <c r="C123" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D123" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E123" s="34">
+      <c r="E123" s="25">
         <v>4</v>
       </c>
-      <c r="F123" s="34">
+      <c r="F123" s="25">
         <v>0</v>
       </c>
-      <c r="G123" s="48"/>
+      <c r="G123" s="39"/>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C124" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="D124" s="37">
+      <c r="C124" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D124" s="28">
         <v>48</v>
       </c>
-      <c r="E124" s="37">
+      <c r="E124" s="28">
         <v>0</v>
       </c>
-      <c r="F124" s="37">
+      <c r="F124" s="28">
         <v>0.75</v>
       </c>
       <c r="G124" s="7"/>
@@ -4700,8 +4646,8 @@
       <c r="B125" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C125" s="47" t="s">
-        <v>173</v>
+      <c r="C125" s="38" t="s">
+        <v>172</v>
       </c>
       <c r="F125">
         <v>2</v>
@@ -4712,8 +4658,8 @@
       <c r="B126" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C126" s="47" t="s">
-        <v>174</v>
+      <c r="C126" s="38" t="s">
+        <v>173</v>
       </c>
       <c r="E126">
         <v>4</v>
@@ -4721,32 +4667,32 @@
       <c r="F126">
         <v>3.5</v>
       </c>
-      <c r="G126" s="50"/>
+      <c r="G126" s="41"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="59" t="s">
+      <c r="B127" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127" s="52"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
+    </row>
+    <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="55"/>
+      <c r="C128" s="56"/>
+      <c r="D128" s="56"/>
+      <c r="E128" s="56"/>
+      <c r="F128" s="56"/>
+      <c r="G128" s="56"/>
+    </row>
+    <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="C127" s="60"/>
-      <c r="D127" s="60"/>
-      <c r="E127" s="60"/>
-      <c r="F127" s="60"/>
-      <c r="G127" s="60"/>
-    </row>
-    <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="63"/>
-      <c r="C128" s="64"/>
-      <c r="D128" s="64"/>
-      <c r="E128" s="64"/>
-      <c r="F128" s="64"/>
-      <c r="G128" s="64"/>
-    </row>
-    <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>177</v>
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="13">
@@ -4756,18 +4702,18 @@
         <v>2</v>
       </c>
       <c r="G129" s="11"/>
-      <c r="I129" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="J129" s="58" t="s">
+      <c r="I129" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="J129" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="K129" s="58" t="s">
+      <c r="K129" s="49" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="130" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="51" t="s">
+      <c r="B130" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C130" s="13" t="s">
@@ -4781,7 +4727,7 @@
         <v>3.5</v>
       </c>
       <c r="G130" s="7"/>
-      <c r="I130" s="57" t="s">
+      <c r="I130" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J130">
@@ -4794,15 +4740,15 @@
       </c>
     </row>
     <row r="131" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="52" t="s">
+      <c r="B131" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D131" s="13"/>
       <c r="E131" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F131" s="13">
         <v>5.17</v>
@@ -4821,11 +4767,11 @@
       </c>
     </row>
     <row r="132" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="52" t="s">
+      <c r="B132" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D132" s="13"/>
       <c r="E132" s="13">
@@ -4848,11 +4794,11 @@
       </c>
     </row>
     <row r="133" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="53" t="s">
+      <c r="B133" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
@@ -4873,11 +4819,11 @@
       </c>
     </row>
     <row r="134" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="55" t="s">
+      <c r="B134" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D134" s="15">
         <v>29</v>
@@ -4902,11 +4848,11 @@
       </c>
     </row>
     <row r="135" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="56" t="s">
+      <c r="B135" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D135" s="13"/>
       <c r="E135" s="13">
@@ -4925,7 +4871,7 @@
       </c>
     </row>
     <row r="136" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="56" t="s">
+      <c r="B136" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C136" s="13" t="s">
@@ -4939,11 +4885,11 @@
       <c r="G136" s="11"/>
     </row>
     <row r="137" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="54" t="s">
+      <c r="B137" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D137" s="13">
         <v>24</v>
@@ -4957,11 +4903,11 @@
       <c r="G137" s="11"/>
     </row>
     <row r="138" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="54" t="s">
+      <c r="B138" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D138" s="13" t="s">
         <v>11</v>
@@ -4975,11 +4921,11 @@
       <c r="G138" s="7"/>
     </row>
     <row r="139" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="54" t="s">
+      <c r="B139" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D139" s="13">
         <v>33</v>
@@ -4993,11 +4939,11 @@
       <c r="G139" s="7"/>
     </row>
     <row r="140" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="54" t="s">
+      <c r="B140" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D140" s="13" t="s">
         <v>11</v>
@@ -5011,11 +4957,11 @@
       <c r="G140" s="7"/>
     </row>
     <row r="141" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="53" t="s">
+      <c r="B141" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D141" s="13"/>
       <c r="E141" s="13">
@@ -5027,29 +4973,29 @@
       <c r="G141" s="7"/>
     </row>
     <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="C142" s="60"/>
-      <c r="D142" s="60"/>
-      <c r="E142" s="60"/>
-      <c r="F142" s="60"/>
-      <c r="G142" s="60"/>
+      <c r="B142" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C142" s="52"/>
+      <c r="D142" s="52"/>
+      <c r="E142" s="52"/>
+      <c r="F142" s="52"/>
+      <c r="G142" s="52"/>
     </row>
     <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="63"/>
-      <c r="C143" s="64"/>
-      <c r="D143" s="64"/>
-      <c r="E143" s="64"/>
-      <c r="F143" s="64"/>
-      <c r="G143" s="64"/>
+      <c r="B143" s="55"/>
+      <c r="C143" s="56"/>
+      <c r="D143" s="56"/>
+      <c r="E143" s="56"/>
+      <c r="F143" s="56"/>
+      <c r="G143" s="56"/>
     </row>
     <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="55" t="s">
+      <c r="B144" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D144" s="15">
         <v>29</v>
@@ -5061,22 +5007,22 @@
         <v>3</v>
       </c>
       <c r="G144" s="7"/>
-      <c r="I144" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="J144" s="58" t="s">
+      <c r="I144" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="J144" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="K144" s="58" t="s">
+      <c r="K144" s="49" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="145" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="55" t="s">
+      <c r="B145" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D145" s="15">
         <v>45</v>
@@ -5088,7 +5034,7 @@
         <v>7</v>
       </c>
       <c r="G145" s="7"/>
-      <c r="I145" s="57" t="s">
+      <c r="I145" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J145">
@@ -5101,16 +5047,16 @@
       </c>
     </row>
     <row r="146" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="53" t="s">
+      <c r="B146" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
+      <c r="G146" s="7"/>
       <c r="I146" s="6" t="s">
         <v>13</v>
       </c>
@@ -5124,11 +5070,11 @@
       </c>
     </row>
     <row r="147" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="55" t="s">
+      <c r="B147" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D147" s="13"/>
       <c r="E147" s="13">
@@ -5143,11 +5089,11 @@
       </c>
     </row>
     <row r="148" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="52" t="s">
+      <c r="B148" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D148" s="15">
         <v>9</v>
@@ -5158,7 +5104,7 @@
       <c r="F148" s="13">
         <v>5.67</v>
       </c>
-      <c r="G148" s="11"/>
+      <c r="G148" s="7"/>
       <c r="I148" s="5" t="s">
         <v>12</v>
       </c>
@@ -5172,13 +5118,13 @@
       </c>
     </row>
     <row r="149" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="52" t="s">
+      <c r="B149" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D149" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D149" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E149" s="13">
@@ -5187,7 +5133,7 @@
       <c r="F149" s="13">
         <v>1.67</v>
       </c>
-      <c r="G149" s="11"/>
+      <c r="G149" s="7"/>
       <c r="I149" s="8" t="s">
         <v>14</v>
       </c>
@@ -5197,28 +5143,32 @@
       </c>
     </row>
     <row r="150" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="52" t="s">
+      <c r="B150" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D150" s="15">
         <v>19</v>
       </c>
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
+      <c r="G150" s="7"/>
       <c r="I150" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="J150">
+        <f>F146+F159+F160</f>
+        <v>4.5</v>
+      </c>
     </row>
     <row r="151" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="52" t="s">
+      <c r="B151" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D151" s="15">
         <v>39</v>
@@ -5229,14 +5179,14 @@
       <c r="F151" s="13">
         <v>0.5</v>
       </c>
-      <c r="G151" s="11"/>
+      <c r="G151" s="7"/>
     </row>
     <row r="152" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="54" t="s">
+      <c r="B152" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D152" s="13">
         <v>24</v>
@@ -5250,11 +5200,11 @@
       <c r="G152" s="11"/>
     </row>
     <row r="153" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="54" t="s">
+      <c r="B153" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D153" s="13">
         <v>35</v>
@@ -5268,11 +5218,11 @@
       <c r="G153" s="7"/>
     </row>
     <row r="154" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="54" t="s">
+      <c r="B154" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D154" s="13" t="s">
         <v>11</v>
@@ -5281,14 +5231,14 @@
         <v>3</v>
       </c>
       <c r="F154" s="13"/>
-      <c r="G154" s="26"/>
+      <c r="G154" s="7"/>
     </row>
     <row r="155" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="51" t="s">
+      <c r="B155" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D155" s="13"/>
       <c r="E155" s="13">
@@ -5300,11 +5250,11 @@
       <c r="G155" s="11"/>
     </row>
     <row r="156" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="51" t="s">
+      <c r="B156" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D156" s="13">
         <v>15</v>
@@ -5314,11 +5264,11 @@
       <c r="G156" s="11"/>
     </row>
     <row r="157" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="56" t="s">
+      <c r="B157" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D157" s="13"/>
       <c r="E157" s="13">
@@ -5330,11 +5280,11 @@
       <c r="G157" s="11"/>
     </row>
     <row r="158" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="56" t="s">
+      <c r="B158" s="47" t="s">
         <v>14</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D158" s="13"/>
       <c r="E158" s="13">
@@ -5346,261 +5296,242 @@
       <c r="G158" s="7"/>
     </row>
     <row r="159" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="C159" s="60"/>
-      <c r="D159" s="60"/>
-      <c r="E159" s="60"/>
-      <c r="F159" s="60"/>
-      <c r="G159" s="60"/>
+      <c r="B159" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13">
+        <v>2.5</v>
+      </c>
+      <c r="G159" s="11"/>
     </row>
     <row r="160" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="63"/>
-      <c r="C160" s="64"/>
-      <c r="D160" s="64"/>
-      <c r="E160" s="64"/>
-      <c r="F160" s="64"/>
-      <c r="G160" s="64"/>
-      <c r="I160" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="J160" s="58" t="s">
+      <c r="B160" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13">
+        <v>2</v>
+      </c>
+      <c r="G160" s="7"/>
+      <c r="I160" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="J160" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="K160" s="58" t="s">
+      <c r="K160" s="49" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="161" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13">
-        <v>8</v>
-      </c>
-      <c r="F161" s="13">
-        <v>11</v>
-      </c>
-      <c r="G161" s="1"/>
-      <c r="I161" s="57" t="s">
+      <c r="I161" s="48" t="s">
         <v>9</v>
       </c>
       <c r="J161">
-        <f>F167+F168+F169+F170+F171+F172</f>
-        <v>19.75</v>
+        <f>F171+F172+F173+F174+F175+F176+F187</f>
+        <v>25.75</v>
       </c>
       <c r="K161">
-        <f>E167+E168+E169+E170+E171+E172</f>
-        <v>16</v>
+        <f>E171+E172+E173+E174+E175+E176+E187</f>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D162" s="13"/>
-      <c r="G162" s="1"/>
       <c r="I162" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J162">
-        <f>F176+F173+F174+F175+F182</f>
-        <v>23.18</v>
+        <f>F180+F177+F178+F179+F186</f>
+        <v>23.68</v>
       </c>
       <c r="K162">
-        <f>E176+E173+E174+E175</f>
+        <f>E180+E177+E178+E179</f>
         <v>18</v>
       </c>
     </row>
     <row r="163" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D163" s="13"/>
-      <c r="E163" s="13">
-        <v>8</v>
-      </c>
-      <c r="F163" s="13">
-        <v>7</v>
-      </c>
-      <c r="G163" s="1"/>
+      <c r="B163" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C163" s="52"/>
+      <c r="D163" s="52"/>
+      <c r="E163" s="52"/>
+      <c r="F163" s="52"/>
+      <c r="G163" s="52"/>
       <c r="I163" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="164" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="G164" s="1"/>
+      <c r="B164" s="55"/>
+      <c r="C164" s="56"/>
+      <c r="D164" s="56"/>
+      <c r="E164" s="56"/>
+      <c r="F164" s="56"/>
+      <c r="G164" s="56"/>
       <c r="I164" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J164">
-        <f>F165+F166+F181</f>
-        <v>10.48</v>
+        <f>F169+F170+F185</f>
+        <v>17</v>
       </c>
       <c r="K164">
-        <f>E165+E166+E181</f>
+        <f>E169+E170+E185</f>
         <v>16</v>
       </c>
     </row>
     <row r="165" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="55" t="s">
-        <v>12</v>
+      <c r="B165" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="1"/>
+      <c r="E165" s="13">
+        <v>8</v>
+      </c>
+      <c r="F165" s="13">
+        <v>11</v>
+      </c>
+      <c r="G165" s="7"/>
       <c r="I165" s="8" t="s">
         <v>14</v>
       </c>
       <c r="J165">
-        <f>F161+F163</f>
-        <v>18</v>
+        <f>F165+F167+F166+F168</f>
+        <v>22</v>
       </c>
       <c r="K165">
-        <f>E161+E163</f>
+        <f>E165+E167</f>
         <v>16</v>
       </c>
     </row>
     <row r="166" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="55" t="s">
-        <v>12</v>
+      <c r="B166" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="D166" s="13"/>
-      <c r="E166" s="13">
-        <v>15</v>
-      </c>
-      <c r="F166" s="13">
-        <v>6.48</v>
-      </c>
-      <c r="G166" s="1"/>
+      <c r="E166" s="75">
+        <v>2</v>
+      </c>
+      <c r="F166" s="75">
+        <v>3</v>
+      </c>
+      <c r="G166" s="7"/>
       <c r="I166" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="J166">
+        <f>F181+F182+F188</f>
+        <v>25</v>
+      </c>
+      <c r="K166">
+        <f>E188+E182+E181</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="167" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="54" t="s">
-        <v>9</v>
+      <c r="B167" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D167" s="13"/>
       <c r="E167" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F167" s="13">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G167" s="7"/>
     </row>
     <row r="168" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="54" t="s">
-        <v>9</v>
+      <c r="B168" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D168" s="13"/>
       <c r="E168" s="13">
+        <v>0</v>
+      </c>
+      <c r="F168" s="75">
+        <v>0</v>
+      </c>
+      <c r="G168" s="7"/>
+    </row>
+    <row r="169" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D169" s="13"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13">
+        <v>0</v>
+      </c>
+      <c r="G169" s="7"/>
+    </row>
+    <row r="170" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D170" s="13"/>
+      <c r="E170" s="13">
+        <v>15</v>
+      </c>
+      <c r="F170" s="13">
+        <v>13</v>
+      </c>
+      <c r="G170" s="7"/>
+    </row>
+    <row r="171" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13">
+        <v>10</v>
+      </c>
+      <c r="F171" s="13">
+        <v>13</v>
+      </c>
+      <c r="G171" s="7"/>
+    </row>
+    <row r="172" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D172" s="13"/>
+      <c r="E172" s="13">
         <v>2</v>
-      </c>
-      <c r="F168" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="G168" s="7"/>
-    </row>
-    <row r="169" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="D169" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E169" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="F169" s="13">
-        <v>2</v>
-      </c>
-      <c r="G169" s="7"/>
-    </row>
-    <row r="170" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D170" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E170" s="13">
-        <v>1</v>
-      </c>
-      <c r="F170" s="13">
-        <v>1</v>
-      </c>
-      <c r="G170" s="7"/>
-    </row>
-    <row r="171" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D171" s="13">
-        <v>35</v>
-      </c>
-      <c r="E171" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F171" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="G171" s="7"/>
-    </row>
-    <row r="172" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D172" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E172" s="13">
-        <v>1</v>
       </c>
       <c r="F172" s="13">
         <v>1.5</v>
@@ -5608,157 +5539,271 @@
       <c r="G172" s="7"/>
     </row>
     <row r="173" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="52" t="s">
+      <c r="B173" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D173" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F173" s="13">
+        <v>2</v>
+      </c>
+      <c r="G173" s="7"/>
+    </row>
+    <row r="174" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="13">
+        <v>1</v>
+      </c>
+      <c r="F174" s="13">
+        <v>1</v>
+      </c>
+      <c r="G174" s="7"/>
+    </row>
+    <row r="175" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D175" s="13">
+        <v>35</v>
+      </c>
+      <c r="E175" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="F175" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="G175" s="7"/>
+    </row>
+    <row r="176" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D176" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="13">
+        <v>1</v>
+      </c>
+      <c r="F176" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="G176" s="7"/>
+    </row>
+    <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C173" s="13" t="s">
+      <c r="C177" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D177" s="15">
+        <v>19</v>
+      </c>
+      <c r="E177" s="13">
+        <v>10</v>
+      </c>
+      <c r="F177" s="13">
+        <v>9.17</v>
+      </c>
+      <c r="G177" s="7"/>
+    </row>
+    <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="D173" s="15">
-        <v>19</v>
-      </c>
-      <c r="E173" s="13">
-        <v>10</v>
-      </c>
-      <c r="F173" s="13">
-        <v>9.17</v>
-      </c>
-      <c r="G173" s="11"/>
-    </row>
-    <row r="174" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="52" t="s">
+      <c r="D178" s="15">
+        <v>9</v>
+      </c>
+      <c r="E178" s="13">
+        <v>2</v>
+      </c>
+      <c r="F178" s="13">
+        <v>2</v>
+      </c>
+      <c r="G178" s="7"/>
+    </row>
+    <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C174" s="13" t="s">
+      <c r="C179" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="D174" s="15">
-        <v>9</v>
-      </c>
-      <c r="E174" s="13">
-        <v>2</v>
-      </c>
-      <c r="F174" s="13">
-        <v>2</v>
-      </c>
-      <c r="G174" s="7"/>
-    </row>
-    <row r="175" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="52" t="s">
+      <c r="D179" s="15">
+        <v>39</v>
+      </c>
+      <c r="E179" s="13">
+        <v>5</v>
+      </c>
+      <c r="F179" s="13">
+        <v>5.67</v>
+      </c>
+      <c r="G179" s="7"/>
+    </row>
+    <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C175" s="13" t="s">
+      <c r="C180" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="D175" s="15">
-        <v>39</v>
-      </c>
-      <c r="E175" s="13">
-        <v>5</v>
-      </c>
-      <c r="F175" s="13">
-        <v>5.67</v>
-      </c>
-      <c r="G175" s="11"/>
-    </row>
-    <row r="176" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C176" s="13" t="s">
+      <c r="D180" s="13"/>
+      <c r="E180" s="13">
+        <v>1</v>
+      </c>
+      <c r="F180" s="13">
+        <v>1.17</v>
+      </c>
+      <c r="G180" s="11"/>
+    </row>
+    <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" s="13" t="s">
         <v>212</v>
-      </c>
-      <c r="D176" s="13"/>
-      <c r="E176" s="13">
-        <v>1</v>
-      </c>
-      <c r="F176" s="13">
-        <v>1.17</v>
-      </c>
-      <c r="G176" s="11"/>
-    </row>
-    <row r="177" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C177" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="13"/>
-      <c r="G177" s="1"/>
-    </row>
-    <row r="178" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
-      <c r="G178" s="1"/>
-    </row>
-    <row r="179" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C179" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13"/>
-      <c r="G179" s="1"/>
-    </row>
-    <row r="180" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D180" s="13"/>
-      <c r="E180" s="13"/>
-      <c r="F180" s="13"/>
-      <c r="G180" s="1"/>
-    </row>
-    <row r="181" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C181" s="13" t="s">
-        <v>218</v>
       </c>
       <c r="D181" s="13"/>
       <c r="E181" s="13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F181" s="13">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G181" s="7"/>
     </row>
     <row r="182" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="52" t="s">
-        <v>13</v>
+      <c r="B182" s="44" t="s">
+        <v>16</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
       <c r="F182" s="13">
-        <v>5.17</v>
-      </c>
-      <c r="G182" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="G182" s="7"/>
+    </row>
+    <row r="183" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D183" s="13"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="13"/>
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D184" s="13"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13">
+        <v>1</v>
+      </c>
+      <c r="F185" s="13">
+        <v>4</v>
+      </c>
+      <c r="G185" s="7"/>
+    </row>
+    <row r="186" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D186" s="13"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="13">
+        <v>5.67</v>
+      </c>
+      <c r="G186" s="11"/>
+    </row>
+    <row r="187" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D187" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="13">
+        <v>4</v>
+      </c>
+      <c r="F187" s="13">
+        <v>6</v>
+      </c>
+      <c r="G187" s="7"/>
+    </row>
+    <row r="188" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D188" s="13"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13">
+        <v>10</v>
+      </c>
+      <c r="G188" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
     <mergeCell ref="B72:G73"/>
     <mergeCell ref="B41:G42"/>
-    <mergeCell ref="B159:G160"/>
+    <mergeCell ref="B163:G164"/>
     <mergeCell ref="B4:G5"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="J22:L22"/>
@@ -5771,8 +5816,6 @@
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="J9:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5786,10 +5829,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5798,11 +5841,10 @@
     <col min="2" max="2" width="35.44140625" customWidth="1"/>
     <col min="3" max="3" width="27.44140625" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>91</v>
       </c>
@@ -5821,47 +5863,41 @@
       <c r="F1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="2">
+        <f>SUM(B2:B1000)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="K1" s="2">
-        <f>SUM(B2:B1000)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="D2" s="16">
         <v>1.5</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="I2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="28">
-        <v>45202</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="J2" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5869,22 +5905,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="16">
         <v>1.5</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="29">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5892,56 +5925,51 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="16">
         <v>5</v>
       </c>
       <c r="E4" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="29">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="16">
         <v>40</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -5955,31 +5983,27 @@
         <v>5</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="32">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="13"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -5993,46 +6017,43 @@
         <v>1.5</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="32">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
       <c r="C10" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -6040,31 +6061,29 @@
         <v>1</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -6076,57 +6095,53 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="13"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="13"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -6134,22 +6149,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="16">
         <v>3</v>
       </c>
       <c r="E18" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="32">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -6163,34 +6175,35 @@
         <v>3</v>
       </c>
       <c r="E19" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="32">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
+      <c r="B20" s="17">
+        <v>1</v>
+      </c>
       <c r="C20" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="17">
+        <v>1</v>
+      </c>
       <c r="C21" s="16" t="s">
         <v>34</v>
       </c>
@@ -6198,82 +6211,79 @@
         <v>2</v>
       </c>
       <c r="E21" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="32">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
       <c r="C22" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="13"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23" s="13"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="17">
+        <v>1</v>
+      </c>
       <c r="C24" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" s="16">
         <v>8</v>
       </c>
       <c r="E24" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="32">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
       <c r="C25" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -6287,31 +6297,29 @@
         <v>5</v>
       </c>
       <c r="E26" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="32">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="17">
+        <v>1</v>
+      </c>
       <c r="C27" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" s="13"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -6319,37 +6327,35 @@
         <v>1</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="16">
         <v>3</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="29">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="17">
+        <v>1</v>
+      </c>
       <c r="C29" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="13"/>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -6357,16 +6363,15 @@
         <v>1</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -6374,64 +6379,59 @@
         <v>1</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="16">
         <v>1</v>
       </c>
       <c r="E31" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="29">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>31</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
       <c r="C32" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" s="16">
         <v>7</v>
       </c>
       <c r="E32" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="32">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>32</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="17">
+        <v>1</v>
+      </c>
       <c r="C33" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" s="16">
         <v>0.5</v>
       </c>
       <c r="E33" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="32">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -6445,16 +6445,13 @@
         <v>1.5</v>
       </c>
       <c r="E34" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" s="32">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -6462,31 +6459,31 @@
         <v>1</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F35" s="13"/>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
-      <c r="B36" s="18"/>
+      <c r="B36" s="17">
+        <v>1</v>
+      </c>
       <c r="C36" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F36" s="13"/>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -6500,16 +6497,13 @@
         <v>1</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" s="30">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -6517,52 +6511,51 @@
         <v>1</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F38" s="13"/>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="17">
+        <v>1</v>
+      </c>
       <c r="C39" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F39" s="13"/>
-      <c r="G39" s="15"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
-      <c r="B40" s="18"/>
+      <c r="B40" s="17">
+        <v>1</v>
+      </c>
       <c r="C40" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D40" s="16">
         <v>3</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G40" s="32">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6570,22 +6563,19 @@
         <v>1</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D41" s="16">
         <v>2</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G41" s="32">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6593,22 +6583,19 @@
         <v>1</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D42" s="16">
         <v>2</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="32">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6616,22 +6603,19 @@
         <v>1</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="16">
         <v>3</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G43" s="32">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6639,43 +6623,39 @@
         <v>1</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="16">
         <v>0.5</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="32">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
-      <c r="B45" s="21"/>
+      <c r="B45" s="17">
+        <v>1</v>
+      </c>
       <c r="C45" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="16">
         <v>1.5</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G45" s="32">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6683,37 +6663,35 @@
         <v>1</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F46" s="13"/>
-      <c r="G46" s="15"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
-      <c r="B47" s="13"/>
+      <c r="B47" s="17">
+        <v>1</v>
+      </c>
       <c r="C47" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="16">
         <v>2</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47" s="31">
-        <v>45216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -6721,39 +6699,36 @@
         <v>1</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="16">
         <v>2</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G48" s="31">
-        <v>45216</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="38">
+      <c r="A49" s="29">
         <v>48</v>
       </c>
       <c r="B49" s="17">
         <v>1</v>
       </c>
-      <c r="C49" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="39">
+      <c r="C49" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="30">
         <v>5</v>
       </c>
-      <c r="E49" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F49" s="39" t="s">
-        <v>100</v>
+      <c r="E49" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -6762,23 +6737,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6987,10 +6945,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7013,20 +6999,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ DemoFinal.xlsx
+++ b/Documentación/To Do - Requisitos_ DemoFinal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DaniPC\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7nume\OneDrive\Documentos\CEU\3- Tercero\Software\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D583457C-F4C2-46F0-A49E-7D84664D2725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6140605-6A93-405E-839E-A6D7F59F3CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="229">
   <si>
     <t>Nombre</t>
   </si>
@@ -741,6 +741,18 @@
   </si>
   <si>
     <t>Demo 6</t>
+  </si>
+  <si>
+    <t>Dados Póker</t>
+  </si>
+  <si>
+    <t>Avatares con BBDD y perfil</t>
+  </si>
+  <si>
+    <t>Póker Cartas</t>
+  </si>
+  <si>
+    <t>Soluciones bugs</t>
   </si>
 </sst>
 </file>
@@ -921,7 +933,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1067,11 +1079,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1132,7 +1157,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1192,22 +1233,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2226,10 +2255,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:P188"/>
+  <dimension ref="A2:P192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J182" sqref="J182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2279,42 +2308,42 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <f t="shared" ref="E3:F3" si="0">SUM(E6:E998)</f>
-        <v>448.2</v>
+        <v>461.7</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>580.9699999999998</v>
+        <v>616.9699999999998</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="19"/>
-      <c r="K3" s="66">
+      <c r="K3" s="72">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130+J145+J161</f>
         <v>147.25</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="J4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="66"/>
+      <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
       <c r="J5" s="21"/>
-      <c r="K5" s="66"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
@@ -2334,10 +2363,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="53">
         <f>F7+F13+F20+F43+F45+F47+F46+J76+J133+J148+J164</f>
         <v>97.84</v>
       </c>
@@ -2360,8 +2389,8 @@
         <v>4</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="50"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="53"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
@@ -2381,8 +2410,8 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="50"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
@@ -2402,10 +2431,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="50">
+      <c r="K9" s="53">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74+J131+J146+J162</f>
         <v>121.78</v>
       </c>
@@ -2427,8 +2456,8 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="50"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -2445,8 +2474,8 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="50"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="53"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
@@ -2465,10 +2494,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="57" t="s">
+      <c r="J12" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="53">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134+J149+J165</f>
         <v>100.85</v>
       </c>
@@ -2488,8 +2517,8 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="50"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="53"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -2506,8 +2535,8 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="50"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="53"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -2524,12 +2553,12 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="50">
+      <c r="K15" s="53">
         <f>F10+F16+F39+F40+F49+F50+F51+J75+J132+J147+J163</f>
-        <v>42</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2547,8 +2576,8 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="50"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="53"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -2565,8 +2594,8 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="50"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="53"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -2585,10 +2614,10 @@
         <v>2</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="J18" s="64" t="s">
+      <c r="J18" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="50">
+      <c r="K18" s="53">
         <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+J78+J135+J150+J166</f>
         <v>67.25</v>
       </c>
@@ -2611,8 +2640,8 @@
         <v>1.5</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="50"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="53"/>
     </row>
     <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -2631,8 +2660,8 @@
         <v>20</v>
       </c>
       <c r="G20" s="32"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="50"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="53"/>
     </row>
     <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -2669,11 +2698,11 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="60" t="s">
+      <c r="J22" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
     </row>
     <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -2997,22 +3026,22 @@
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
     </row>
     <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="53"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
     </row>
     <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
@@ -3684,14 +3713,14 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
       <c r="I72" s="24" t="s">
         <v>68</v>
       </c>
@@ -3703,12 +3732,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="53"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -4670,22 +4699,22 @@
       <c r="G126" s="41"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="51" t="s">
+      <c r="B127" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="C127" s="52"/>
-      <c r="D127" s="52"/>
-      <c r="E127" s="52"/>
-      <c r="F127" s="52"/>
-      <c r="G127" s="52"/>
+      <c r="C127" s="58"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="58"/>
+      <c r="G127" s="58"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="55"/>
-      <c r="C128" s="56"/>
-      <c r="D128" s="56"/>
-      <c r="E128" s="56"/>
-      <c r="F128" s="56"/>
-      <c r="G128" s="56"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="62"/>
+      <c r="D128" s="62"/>
+      <c r="E128" s="62"/>
+      <c r="F128" s="62"/>
+      <c r="G128" s="62"/>
     </row>
     <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="42" t="s">
@@ -4973,22 +5002,22 @@
       <c r="G141" s="7"/>
     </row>
     <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="51" t="s">
+      <c r="B142" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="C142" s="52"/>
-      <c r="D142" s="52"/>
-      <c r="E142" s="52"/>
-      <c r="F142" s="52"/>
-      <c r="G142" s="52"/>
+      <c r="C142" s="58"/>
+      <c r="D142" s="58"/>
+      <c r="E142" s="58"/>
+      <c r="F142" s="58"/>
+      <c r="G142" s="58"/>
     </row>
     <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="55"/>
-      <c r="C143" s="56"/>
-      <c r="D143" s="56"/>
-      <c r="E143" s="56"/>
-      <c r="F143" s="56"/>
-      <c r="G143" s="56"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="62"/>
+      <c r="D143" s="62"/>
+      <c r="E143" s="62"/>
+      <c r="F143" s="62"/>
+      <c r="G143" s="62"/>
     </row>
     <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="46" t="s">
@@ -5087,6 +5116,14 @@
       <c r="I147" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="J147">
+        <f>F155</f>
+        <v>1.5</v>
+      </c>
+      <c r="K147">
+        <f>E155</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="43" t="s">
@@ -5359,25 +5396,33 @@
       </c>
     </row>
     <row r="163" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="51" t="s">
+      <c r="B163" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="C163" s="52"/>
-      <c r="D163" s="52"/>
-      <c r="E163" s="52"/>
-      <c r="F163" s="52"/>
-      <c r="G163" s="52"/>
+      <c r="C163" s="58"/>
+      <c r="D163" s="58"/>
+      <c r="E163" s="58"/>
+      <c r="F163" s="58"/>
+      <c r="G163" s="58"/>
       <c r="I163" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="J163">
+        <f>F183+F184+F189+F190+F191+F192</f>
+        <v>36</v>
+      </c>
+      <c r="K163">
+        <f>E189+E190+E191+E192+E183+E184</f>
+        <v>13.5</v>
+      </c>
     </row>
     <row r="164" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="55"/>
-      <c r="C164" s="56"/>
-      <c r="D164" s="56"/>
-      <c r="E164" s="56"/>
-      <c r="F164" s="56"/>
-      <c r="G164" s="56"/>
+      <c r="B164" s="61"/>
+      <c r="C164" s="62"/>
+      <c r="D164" s="62"/>
+      <c r="E164" s="62"/>
+      <c r="F164" s="62"/>
+      <c r="G164" s="62"/>
       <c r="I164" s="5" t="s">
         <v>12</v>
       </c>
@@ -5425,10 +5470,10 @@
         <v>202</v>
       </c>
       <c r="D166" s="13"/>
-      <c r="E166" s="75">
+      <c r="E166" s="52">
         <v>2</v>
       </c>
-      <c r="F166" s="75">
+      <c r="F166" s="52">
         <v>3</v>
       </c>
       <c r="G166" s="7"/>
@@ -5471,7 +5516,7 @@
       <c r="E168" s="13">
         <v>0</v>
       </c>
-      <c r="F168" s="75">
+      <c r="F168" s="52">
         <v>0</v>
       </c>
       <c r="G168" s="7"/>
@@ -5718,8 +5763,12 @@
         <v>213</v>
       </c>
       <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="13"/>
+      <c r="E183" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F183" s="13">
+        <v>4</v>
+      </c>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5730,8 +5779,12 @@
         <v>214</v>
       </c>
       <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="13"/>
+      <c r="E184" s="13">
+        <v>1</v>
+      </c>
+      <c r="F184" s="13">
+        <v>2</v>
+      </c>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5783,26 +5836,83 @@
       <c r="G187" s="7"/>
     </row>
     <row r="188" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="44" t="s">
+      <c r="B188" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C188" s="13" t="s">
+      <c r="C188" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="D188" s="13"/>
-      <c r="E188" s="13"/>
-      <c r="F188" s="13">
+      <c r="D188" s="77"/>
+      <c r="E188" s="77"/>
+      <c r="F188" s="77">
         <v>10</v>
       </c>
-      <c r="G188" s="7"/>
+      <c r="G188" s="78"/>
+    </row>
+    <row r="189" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" s="79" t="s">
+        <v>225</v>
+      </c>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13">
+        <v>4</v>
+      </c>
+      <c r="F189" s="13">
+        <v>10</v>
+      </c>
+      <c r="G189" s="78"/>
+    </row>
+    <row r="190" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" s="79" t="s">
+        <v>226</v>
+      </c>
+      <c r="D190" s="13"/>
+      <c r="E190" s="13">
+        <v>2</v>
+      </c>
+      <c r="F190" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="G190" s="78"/>
+    </row>
+    <row r="191" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C191" s="79" t="s">
+        <v>227</v>
+      </c>
+      <c r="D191" s="13"/>
+      <c r="E191" s="13">
+        <v>5</v>
+      </c>
+      <c r="F191" s="13">
+        <v>8</v>
+      </c>
+      <c r="G191" s="11"/>
+    </row>
+    <row r="192" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="D192" s="13"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="G192" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="B41:G42"/>
     <mergeCell ref="B163:G164"/>
     <mergeCell ref="B4:G5"/>
     <mergeCell ref="J12:J14"/>
@@ -5816,6 +5926,11 @@
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="B41:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5832,7 +5947,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5941,7 +6056,7 @@
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="73"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="16" t="s">
         <v>104</v>
       </c>
@@ -5955,7 +6070,7 @@
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="73"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="16" t="s">
         <v>106</v>
       </c>
@@ -5993,7 +6108,7 @@
       <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="73"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="16" t="s">
         <v>109</v>
       </c>
@@ -6043,7 +6158,7 @@
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="74"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="16" t="s">
         <v>112</v>
       </c>
@@ -6073,7 +6188,7 @@
       <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="73"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="16" t="s">
         <v>114</v>
       </c>
@@ -6103,7 +6218,7 @@
       <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="73"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="16" t="s">
         <v>115</v>
       </c>
@@ -6117,7 +6232,7 @@
       <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="74"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="16" t="s">
         <v>116</v>
       </c>
@@ -6131,7 +6246,7 @@
       <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="73"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="16" t="s">
         <v>117</v>
       </c>
@@ -6237,7 +6352,7 @@
       <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="73"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="16" t="s">
         <v>121</v>
       </c>
@@ -6737,6 +6852,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -6945,38 +7077,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6999,9 +7103,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentación/To Do - Requisitos_ DemoFinal.xlsx
+++ b/Documentación/To Do - Requisitos_ DemoFinal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7nume\OneDrive\Documentos\CEU\3- Tercero\Software\Konguitos_Casino\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahdm\Workspace\Konguitos_Casino\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6140605-6A93-405E-839E-A6D7F59F3CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D28124-D60A-4AC8-8F90-EAF5F950FFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificador" sheetId="1" r:id="rId1"/>
@@ -1096,7 +1096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1164,34 +1164,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,6 +1196,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1233,10 +1227,15 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2257,20 +2256,20 @@
   </sheetPr>
   <dimension ref="A2:P192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J182" sqref="J182"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F188" sqref="F188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.44140625" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" customWidth="1"/>
-    <col min="12" max="12" width="26.5546875" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.453125" customWidth="1"/>
+    <col min="11" max="11" width="35.453125" customWidth="1"/>
+    <col min="12" max="12" width="26.54296875" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2299,7 +2298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2312,36 +2311,36 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>616.9699999999998</v>
+        <v>620.9699999999998</v>
       </c>
       <c r="G3" s="1"/>
       <c r="J3" s="19"/>
       <c r="K3" s="72">
         <f>F6+F12+F22+F21+F52+F53+F54+F62+F63+F64+F65+F71+J73+J130+J145+J161</f>
-        <v>147.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="57" t="s">
+        <v>151.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="J4" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="72"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
       <c r="J5" s="21"/>
       <c r="K5" s="72"/>
       <c r="L5" s="2"/>
@@ -2366,7 +2365,7 @@
       <c r="J6" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="66">
         <f>F7+F13+F20+F43+F45+F47+F46+J76+J133+J148+J164</f>
         <v>97.84</v>
       </c>
@@ -2390,7 +2389,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="J7" s="74"/>
-      <c r="K7" s="53"/>
+      <c r="K7" s="66"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
@@ -2411,7 +2410,7 @@
       </c>
       <c r="G8" s="7"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="53"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="O8" s="2"/>
@@ -2431,10 +2430,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="66">
         <f>F8+F14+F19+F24+F26+F28+F30+F44+F55+F56+F61+F66+J74+J131+J146+J162</f>
         <v>121.78</v>
       </c>
@@ -2456,8 +2455,8 @@
         <v>3</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="53"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
@@ -2474,8 +2473,8 @@
         <v>1.5</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="53"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="66"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
@@ -2494,10 +2493,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="66">
         <f>F9+F15+F32+F33+F34+F35+F36+F37+F38+F48+F67+F68+J77+J134+J149+J165</f>
         <v>100.85</v>
       </c>
@@ -2517,8 +2516,8 @@
         <v>2.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="53"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="66"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
@@ -2535,8 +2534,8 @@
         <v>0</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="53"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
@@ -2556,7 +2555,7 @@
       <c r="J15" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="53">
+      <c r="K15" s="66">
         <f>F10+F16+F39+F40+F49+F50+F51+J75+J132+J147+J163</f>
         <v>79.5</v>
       </c>
@@ -2577,7 +2576,7 @@
       </c>
       <c r="G16" s="7"/>
       <c r="J16" s="68"/>
-      <c r="K16" s="53"/>
+      <c r="K16" s="66"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -2595,7 +2594,7 @@
       </c>
       <c r="G17" s="7"/>
       <c r="J17" s="69"/>
-      <c r="K17" s="53"/>
+      <c r="K17" s="66"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -2617,7 +2616,7 @@
       <c r="J18" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="53">
+      <c r="K18" s="66">
         <f>F11+F23+F25+F27+F29+F31+F57+F58+F59+F60+F69+F70+J78+J135+J150+J166</f>
         <v>67.25</v>
       </c>
@@ -2641,9 +2640,9 @@
       </c>
       <c r="G19" s="7"/>
       <c r="J19" s="71"/>
-      <c r="K19" s="53"/>
-    </row>
-    <row r="20" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K19" s="66"/>
+    </row>
+    <row r="20" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2661,9 +2660,9 @@
       </c>
       <c r="G20" s="32"/>
       <c r="J20" s="71"/>
-      <c r="K20" s="53"/>
-    </row>
-    <row r="21" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K20" s="66"/>
+    </row>
+    <row r="21" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
@@ -2681,7 +2680,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -2698,13 +2697,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="J22" s="66" t="s">
+      <c r="J22" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-    </row>
-    <row r="23" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+    </row>
+    <row r="23" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2722,7 +2721,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
@@ -2740,7 +2739,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
@@ -2758,7 +2757,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
@@ -2776,7 +2775,7 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -2794,7 +2793,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2812,7 +2811,7 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2830,7 +2829,7 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2848,7 +2847,7 @@
       </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -2865,7 +2864,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
@@ -2883,7 +2882,7 @@
       </c>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
@@ -2899,7 +2898,7 @@
       </c>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>14</v>
       </c>
@@ -2917,7 +2916,7 @@
       </c>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>14</v>
       </c>
@@ -2935,7 +2934,7 @@
       </c>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2953,7 +2952,7 @@
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>14</v>
       </c>
@@ -2971,7 +2970,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>14</v>
       </c>
@@ -2989,7 +2988,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
@@ -3007,7 +3006,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
@@ -3025,25 +3024,25 @@
       </c>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B41" s="57" t="s">
+    <row r="41" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-    </row>
-    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B42" s="59"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-    </row>
-    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+    </row>
+    <row r="42" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+    </row>
+    <row r="43" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
@@ -3061,7 +3060,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
@@ -3079,7 +3078,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
@@ -3097,7 +3096,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
@@ -3115,7 +3114,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
@@ -3133,7 +3132,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
@@ -3151,7 +3150,7 @@
       </c>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -3178,7 +3177,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>15</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B51" s="9" t="s">
         <v>15</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>9</v>
       </c>
@@ -3265,7 +3264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
@@ -3294,7 +3293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
@@ -3323,7 +3322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>13</v>
       </c>
@@ -3350,7 +3349,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>13</v>
       </c>
@@ -3368,7 +3367,7 @@
       </c>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -3386,7 +3385,7 @@
       </c>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -3442,7 +3441,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -3471,7 +3470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3713,14 +3712,14 @@
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
       <c r="I72" s="24" t="s">
         <v>68</v>
       </c>
@@ -3732,12 +3731,12 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="59"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
       <c r="I73" s="4" t="s">
         <v>9</v>
       </c>
@@ -3991,7 +3990,7 @@
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
     </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="8" t="s">
         <v>14</v>
       </c>
@@ -4145,7 +4144,7 @@
       </c>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
         <v>9</v>
       </c>
@@ -4699,22 +4698,22 @@
       <c r="G126" s="41"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="57" t="s">
+      <c r="B127" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="C127" s="58"/>
-      <c r="D127" s="58"/>
-      <c r="E127" s="58"/>
-      <c r="F127" s="58"/>
-      <c r="G127" s="58"/>
+      <c r="C127" s="57"/>
+      <c r="D127" s="57"/>
+      <c r="E127" s="57"/>
+      <c r="F127" s="57"/>
+      <c r="G127" s="57"/>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="61"/>
-      <c r="C128" s="62"/>
-      <c r="D128" s="62"/>
-      <c r="E128" s="62"/>
-      <c r="F128" s="62"/>
-      <c r="G128" s="62"/>
+      <c r="B128" s="58"/>
+      <c r="C128" s="59"/>
+      <c r="D128" s="59"/>
+      <c r="E128" s="59"/>
+      <c r="F128" s="59"/>
+      <c r="G128" s="59"/>
     </row>
     <row r="129" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="42" t="s">
@@ -5002,22 +5001,22 @@
       <c r="G141" s="7"/>
     </row>
     <row r="142" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="57" t="s">
+      <c r="B142" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="C142" s="58"/>
-      <c r="D142" s="58"/>
-      <c r="E142" s="58"/>
-      <c r="F142" s="58"/>
-      <c r="G142" s="58"/>
+      <c r="C142" s="57"/>
+      <c r="D142" s="57"/>
+      <c r="E142" s="57"/>
+      <c r="F142" s="57"/>
+      <c r="G142" s="57"/>
     </row>
     <row r="143" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="61"/>
-      <c r="C143" s="62"/>
-      <c r="D143" s="62"/>
-      <c r="E143" s="62"/>
-      <c r="F143" s="62"/>
-      <c r="G143" s="62"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="59"/>
+      <c r="D143" s="59"/>
+      <c r="E143" s="59"/>
+      <c r="F143" s="59"/>
+      <c r="G143" s="59"/>
     </row>
     <row r="144" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="46" t="s">
@@ -5375,7 +5374,7 @@
       </c>
       <c r="J161">
         <f>F171+F172+F173+F174+F175+F176+F187</f>
-        <v>25.75</v>
+        <v>29.75</v>
       </c>
       <c r="K161">
         <f>E171+E172+E173+E174+E175+E176+E187</f>
@@ -5396,14 +5395,14 @@
       </c>
     </row>
     <row r="163" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="57" t="s">
+      <c r="B163" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="C163" s="58"/>
-      <c r="D163" s="58"/>
-      <c r="E163" s="58"/>
-      <c r="F163" s="58"/>
-      <c r="G163" s="58"/>
+      <c r="C163" s="57"/>
+      <c r="D163" s="57"/>
+      <c r="E163" s="57"/>
+      <c r="F163" s="57"/>
+      <c r="G163" s="57"/>
       <c r="I163" s="9" t="s">
         <v>15</v>
       </c>
@@ -5417,12 +5416,12 @@
       </c>
     </row>
     <row r="164" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="61"/>
-      <c r="C164" s="62"/>
-      <c r="D164" s="62"/>
-      <c r="E164" s="62"/>
-      <c r="F164" s="62"/>
-      <c r="G164" s="62"/>
+      <c r="B164" s="58"/>
+      <c r="C164" s="59"/>
+      <c r="D164" s="59"/>
+      <c r="E164" s="59"/>
+      <c r="F164" s="59"/>
+      <c r="G164" s="59"/>
       <c r="I164" s="5" t="s">
         <v>12</v>
       </c>
@@ -5831,29 +5830,29 @@
         <v>4</v>
       </c>
       <c r="F187" s="13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G187" s="7"/>
     </row>
     <row r="188" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="76" t="s">
+      <c r="B188" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C188" s="77" t="s">
+      <c r="C188" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="D188" s="77"/>
-      <c r="E188" s="77"/>
-      <c r="F188" s="77">
+      <c r="D188" s="54"/>
+      <c r="E188" s="54"/>
+      <c r="F188" s="54">
         <v>10</v>
       </c>
-      <c r="G188" s="78"/>
+      <c r="G188" s="55"/>
     </row>
     <row r="189" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C189" s="79" t="s">
+      <c r="C189" s="13" t="s">
         <v>225</v>
       </c>
       <c r="D189" s="13"/>
@@ -5863,13 +5862,13 @@
       <c r="F189" s="13">
         <v>10</v>
       </c>
-      <c r="G189" s="78"/>
+      <c r="G189" s="55"/>
     </row>
     <row r="190" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C190" s="79" t="s">
+      <c r="C190" s="13" t="s">
         <v>226</v>
       </c>
       <c r="D190" s="13"/>
@@ -5879,13 +5878,13 @@
       <c r="F190" s="13">
         <v>4.5</v>
       </c>
-      <c r="G190" s="78"/>
+      <c r="G190" s="55"/>
     </row>
     <row r="191" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C191" s="79" t="s">
+      <c r="C191" s="13" t="s">
         <v>227</v>
       </c>
       <c r="D191" s="13"/>
@@ -5901,7 +5900,7 @@
       <c r="B192" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C192" s="79" t="s">
+      <c r="C192" s="13" t="s">
         <v>228</v>
       </c>
       <c r="D192" s="13"/>
@@ -5909,10 +5908,12 @@
       <c r="F192" s="13">
         <v>7.5</v>
       </c>
-      <c r="G192" s="78"/>
+      <c r="G192" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="B41:G42"/>
     <mergeCell ref="B163:G164"/>
     <mergeCell ref="B4:G5"/>
     <mergeCell ref="J12:J14"/>
@@ -5929,8 +5930,6 @@
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="K9:K11"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="B41:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5950,12 +5949,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6012,7 +6011,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -6032,7 +6031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -6256,7 +6255,7 @@
       </c>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -6276,7 +6275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -6296,7 +6295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -6312,7 +6311,7 @@
       </c>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -6332,7 +6331,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -6348,7 +6347,7 @@
       </c>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -6362,7 +6361,7 @@
       </c>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -6398,7 +6397,7 @@
       </c>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -6434,7 +6433,7 @@
       </c>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -6454,7 +6453,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -6470,7 +6469,7 @@
       </c>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -6486,7 +6485,7 @@
       </c>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -6506,7 +6505,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -6546,7 +6545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -6566,7 +6565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -6582,7 +6581,7 @@
       </c>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -6598,7 +6597,7 @@
       </c>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -6618,7 +6617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -6634,7 +6633,7 @@
       </c>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -6650,7 +6649,7 @@
       </c>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -6670,7 +6669,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6690,7 +6689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6710,7 +6709,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6730,7 +6729,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6750,7 +6749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6770,7 +6769,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6786,7 +6785,7 @@
       </c>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6852,23 +6851,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002ACE3BD3BD6E0C4C9762278BB0DF607B" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fab7ba1af23be20b30c2a2672ed67a22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf" xmlns:ns4="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531abb56a789977dee09b3cb67363cc8" ns3:_="" ns4:_="">
     <xsd:import namespace="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
@@ -7077,10 +7059,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6940eef6-fc62-4b65-9bd8-c66fd5d892a7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
+    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7103,20 +7113,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B364D9CE-BB59-43E7-813A-8F81412AF980}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9686506-EA07-42D8-AD05-D46E593ADF62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b93fd186-45b2-483c-a5e2-2f5c4e9c14cf"/>
-    <ds:schemaRef ds:uri="6940eef6-fc62-4b65-9bd8-c66fd5d892a7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>